--- a/data/nzd0571/nzd0571.xlsx
+++ b/data/nzd0571/nzd0571.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S436"/>
+  <dimension ref="A1:S439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26006,6 +26006,165 @@
         </is>
       </c>
     </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-28 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>270.76</v>
+      </c>
+      <c r="C437" t="n">
+        <v>264.52</v>
+      </c>
+      <c r="D437" t="n">
+        <v>262.63</v>
+      </c>
+      <c r="E437" t="n">
+        <v>272.62</v>
+      </c>
+      <c r="F437" t="n">
+        <v>266.23</v>
+      </c>
+      <c r="G437" t="n">
+        <v>265.81</v>
+      </c>
+      <c r="H437" t="n">
+        <v>270.86</v>
+      </c>
+      <c r="I437" t="n">
+        <v>282.74</v>
+      </c>
+      <c r="J437" t="n">
+        <v>288.94</v>
+      </c>
+      <c r="K437" t="n">
+        <v>300.13</v>
+      </c>
+      <c r="L437" t="n">
+        <v>297.15</v>
+      </c>
+      <c r="M437" t="n">
+        <v>287.02</v>
+      </c>
+      <c r="N437" t="n">
+        <v>290.87</v>
+      </c>
+      <c r="O437" t="n">
+        <v>298.59</v>
+      </c>
+      <c r="P437" t="n">
+        <v>306.51</v>
+      </c>
+      <c r="Q437" t="inlineStr"/>
+      <c r="R437" t="inlineStr"/>
+      <c r="S437" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:13:22+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>274.71</v>
+      </c>
+      <c r="C438" t="n">
+        <v>266.48</v>
+      </c>
+      <c r="D438" t="n">
+        <v>254.84</v>
+      </c>
+      <c r="E438" t="n">
+        <v>261.78</v>
+      </c>
+      <c r="F438" t="n">
+        <v>258.08</v>
+      </c>
+      <c r="G438" t="n">
+        <v>264.53</v>
+      </c>
+      <c r="H438" t="n">
+        <v>263.96</v>
+      </c>
+      <c r="I438" t="n">
+        <v>262.34</v>
+      </c>
+      <c r="J438" t="n">
+        <v>267.34</v>
+      </c>
+      <c r="K438" t="n">
+        <v>268.66</v>
+      </c>
+      <c r="L438" t="n">
+        <v>274.54</v>
+      </c>
+      <c r="M438" t="n">
+        <v>280.58</v>
+      </c>
+      <c r="N438" t="n">
+        <v>285.53</v>
+      </c>
+      <c r="O438" t="n">
+        <v>298.4</v>
+      </c>
+      <c r="P438" t="n">
+        <v>295.83</v>
+      </c>
+      <c r="Q438" t="n">
+        <v>289.83</v>
+      </c>
+      <c r="R438" t="n">
+        <v>289.65</v>
+      </c>
+      <c r="S438" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:13:19+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr"/>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr"/>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="n">
+        <v>243.73</v>
+      </c>
+      <c r="H439" t="n">
+        <v>248.74</v>
+      </c>
+      <c r="I439" t="n">
+        <v>247.32</v>
+      </c>
+      <c r="J439" t="n">
+        <v>255.62</v>
+      </c>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="inlineStr"/>
+      <c r="M439" t="inlineStr"/>
+      <c r="N439" t="inlineStr"/>
+      <c r="O439" t="inlineStr"/>
+      <c r="P439" t="inlineStr"/>
+      <c r="Q439" t="inlineStr"/>
+      <c r="R439" t="inlineStr"/>
+      <c r="S439" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26017,7 +26176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B449"/>
+  <dimension ref="A1:B452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30515,6 +30674,36 @@
       </c>
       <c r="B449" t="n">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2025-10-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
@@ -30673,37 +30862,37 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0349</v>
+        <v>0.0359</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04</v>
+        <v>0.0407</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3943144539260442</v>
+        <v>-0.3868777334743643</v>
       </c>
       <c r="J2" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K2" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04006208944005485</v>
+        <v>0.03900202292348065</v>
       </c>
       <c r="M2" t="n">
-        <v>10.83985966927799</v>
+        <v>10.82358078803493</v>
       </c>
       <c r="N2" t="n">
-        <v>198.4663110527295</v>
+        <v>197.7363526968577</v>
       </c>
       <c r="O2" t="n">
-        <v>14.08780717687211</v>
+        <v>14.06187585981535</v>
       </c>
       <c r="P2" t="n">
-        <v>275.9027531987811</v>
+        <v>275.8260658496322</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30751,31 +30940,31 @@
         <v>0.0349</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0363</v>
+        <v>0.0375</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2697420185263888</v>
+        <v>-0.2655882031861325</v>
       </c>
       <c r="J3" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K3" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0184365938311013</v>
+        <v>0.01807815844255511</v>
       </c>
       <c r="M3" t="n">
-        <v>11.30576837190674</v>
+        <v>11.27035580005135</v>
       </c>
       <c r="N3" t="n">
-        <v>208.3079189322047</v>
+        <v>207.3496326550417</v>
       </c>
       <c r="O3" t="n">
-        <v>14.43287632220981</v>
+        <v>14.39964001824496</v>
       </c>
       <c r="P3" t="n">
-        <v>268.5094685149476</v>
+        <v>268.4669667846205</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30820,34 +31009,34 @@
         <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0367</v>
+        <v>0.038</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0405</v>
+        <v>0.0406</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3073471914951624</v>
+        <v>-0.3050990365551973</v>
       </c>
       <c r="J4" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K4" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02253819150147707</v>
+        <v>0.02245888341200319</v>
       </c>
       <c r="M4" t="n">
-        <v>11.25044558695228</v>
+        <v>11.21463934212008</v>
       </c>
       <c r="N4" t="n">
-        <v>221.0085571227131</v>
+        <v>220.0081138480198</v>
       </c>
       <c r="O4" t="n">
-        <v>14.86635655171479</v>
+        <v>14.83267048943041</v>
       </c>
       <c r="P4" t="n">
-        <v>264.5796566700515</v>
+        <v>264.5568323446885</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30892,34 +31081,34 @@
         <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.039</v>
+        <v>0.0392</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0407</v>
+        <v>0.0409</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2514799162476954</v>
+        <v>-0.2419850032374178</v>
       </c>
       <c r="J5" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K5" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0164935895602597</v>
+        <v>0.01541831436108276</v>
       </c>
       <c r="M5" t="n">
-        <v>10.65424545243451</v>
+        <v>10.65410621114996</v>
       </c>
       <c r="N5" t="n">
-        <v>203.9555712123923</v>
+        <v>203.5297439904723</v>
       </c>
       <c r="O5" t="n">
-        <v>14.28130145373286</v>
+        <v>14.26638510592197</v>
       </c>
       <c r="P5" t="n">
-        <v>264.3302698427269</v>
+        <v>264.2337847554545</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30964,34 +31153,34 @@
         <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0382</v>
+        <v>0.0388</v>
       </c>
       <c r="H6" t="n">
         <v>0.0404</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3850959495670452</v>
+        <v>-0.3802781944026951</v>
       </c>
       <c r="J6" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K6" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04525072840800592</v>
+        <v>0.04461884351583822</v>
       </c>
       <c r="M6" t="n">
-        <v>10.05010835570476</v>
+        <v>10.02600135800797</v>
       </c>
       <c r="N6" t="n">
-        <v>167.8674351897366</v>
+        <v>167.2186213086882</v>
       </c>
       <c r="O6" t="n">
-        <v>12.95636658904558</v>
+        <v>12.93130392917467</v>
       </c>
       <c r="P6" t="n">
-        <v>267.5596080703052</v>
+        <v>267.5104750548244</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31036,34 +31225,34 @@
         <v>0.04</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0378</v>
+        <v>0.0372</v>
       </c>
       <c r="H7" t="n">
         <v>0.0404</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.6075153282507536</v>
+        <v>-0.6053774717015967</v>
       </c>
       <c r="J7" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K7" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08752524341548029</v>
+        <v>0.08806118336263524</v>
       </c>
       <c r="M7" t="n">
-        <v>10.96878343021094</v>
+        <v>10.96237773653079</v>
       </c>
       <c r="N7" t="n">
-        <v>205.6166953580062</v>
+        <v>204.8605423537791</v>
       </c>
       <c r="O7" t="n">
-        <v>14.33934082717913</v>
+        <v>14.31295016248499</v>
       </c>
       <c r="P7" t="n">
-        <v>272.5322300684866</v>
+        <v>272.5106154874011</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31108,34 +31297,34 @@
         <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0392</v>
+        <v>0.0391</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0416</v>
+        <v>0.0415</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4313180573081642</v>
+        <v>-0.4252306878808543</v>
       </c>
       <c r="J8" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K8" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04493729558397741</v>
+        <v>0.04432087425007369</v>
       </c>
       <c r="M8" t="n">
-        <v>11.20655520767249</v>
+        <v>11.19600228811516</v>
       </c>
       <c r="N8" t="n">
-        <v>213.6915356727572</v>
+        <v>212.8507613871164</v>
       </c>
       <c r="O8" t="n">
-        <v>14.61819194267052</v>
+        <v>14.58940579280446</v>
       </c>
       <c r="P8" t="n">
-        <v>268.4934096021807</v>
+        <v>268.4320462373773</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31180,34 +31369,34 @@
         <v>0.04</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0394</v>
+        <v>0.0393</v>
       </c>
       <c r="H9" t="n">
         <v>0.0405</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1544573889703558</v>
+        <v>-0.148124003356694</v>
       </c>
       <c r="J9" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K9" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006794081561592336</v>
+        <v>0.006304354199046847</v>
       </c>
       <c r="M9" t="n">
-        <v>10.29617838555009</v>
+        <v>10.31739697296297</v>
       </c>
       <c r="N9" t="n">
-        <v>189.4982232312118</v>
+        <v>189.7824283458819</v>
       </c>
       <c r="O9" t="n">
-        <v>13.76583536263644</v>
+        <v>13.77615433805392</v>
       </c>
       <c r="P9" t="n">
-        <v>263.9839128809237</v>
+        <v>263.920332413237</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31258,28 +31447,28 @@
         <v>0.0355</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2428137235545379</v>
+        <v>-0.2306714008669279</v>
       </c>
       <c r="J10" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K10" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01363087924627193</v>
+        <v>0.01243561702026807</v>
       </c>
       <c r="M10" t="n">
-        <v>11.63161016133703</v>
+        <v>11.6477773850303</v>
       </c>
       <c r="N10" t="n">
-        <v>231.2690956412841</v>
+        <v>231.4188984948044</v>
       </c>
       <c r="O10" t="n">
-        <v>15.20753417360238</v>
+        <v>15.21245866041398</v>
       </c>
       <c r="P10" t="n">
-        <v>269.080308000257</v>
+        <v>268.9586395721705</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31324,34 +31513,34 @@
         <v>0.035</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0345</v>
+        <v>0.0346</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0355</v>
+        <v>0.0356</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1609806080931939</v>
+        <v>0.1792725228353808</v>
       </c>
       <c r="J11" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K11" t="n">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006093119585626527</v>
+        <v>0.00754741231769207</v>
       </c>
       <c r="M11" t="n">
-        <v>11.83371656202229</v>
+        <v>11.87724880240436</v>
       </c>
       <c r="N11" t="n">
-        <v>226.7377650489994</v>
+        <v>228.3111134023059</v>
       </c>
       <c r="O11" t="n">
-        <v>15.05781408601525</v>
+        <v>15.10996735278756</v>
       </c>
       <c r="P11" t="n">
-        <v>263.0305397099271</v>
+        <v>262.8464533925834</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31396,34 +31585,34 @@
         <v>0.035</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0346</v>
+        <v>0.0345</v>
       </c>
       <c r="H12" t="n">
         <v>0.0356</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002330284322055019</v>
+        <v>0.02477265874678055</v>
       </c>
       <c r="J12" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K12" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L12" t="n">
-        <v>1.269680432902653e-06</v>
+        <v>0.0001433316690792052</v>
       </c>
       <c r="M12" t="n">
-        <v>12.21527066763727</v>
+        <v>12.27801808951612</v>
       </c>
       <c r="N12" t="n">
-        <v>234.1493512849195</v>
+        <v>235.9408127196014</v>
       </c>
       <c r="O12" t="n">
-        <v>15.3019394615493</v>
+        <v>15.36036499304627</v>
       </c>
       <c r="P12" t="n">
-        <v>264.2767207027358</v>
+        <v>264.0508129131183</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31474,28 +31663,28 @@
         <v>0.0309</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01265059677636132</v>
+        <v>0.02738876748602951</v>
       </c>
       <c r="J13" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K13" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L13" t="n">
-        <v>2.814351022750738e-05</v>
+        <v>0.0001330746324493814</v>
       </c>
       <c r="M13" t="n">
-        <v>14.42910122738533</v>
+        <v>14.44212452723236</v>
       </c>
       <c r="N13" t="n">
-        <v>308.1971397963739</v>
+        <v>307.626681534722</v>
       </c>
       <c r="O13" t="n">
-        <v>17.55554441754439</v>
+        <v>17.53928965308236</v>
       </c>
       <c r="P13" t="n">
-        <v>269.6584655302993</v>
+        <v>269.5100687410387</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31546,28 +31735,28 @@
         <v>0.0304</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02323207306481426</v>
+        <v>0.04031609608696319</v>
       </c>
       <c r="J14" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K14" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001063397561370527</v>
+        <v>0.0003226648547861588</v>
       </c>
       <c r="M14" t="n">
-        <v>13.47895259618139</v>
+        <v>13.5061305753179</v>
       </c>
       <c r="N14" t="n">
-        <v>277.9744423457016</v>
+        <v>277.817085945351</v>
       </c>
       <c r="O14" t="n">
-        <v>16.67256555979618</v>
+        <v>16.66784586997825</v>
       </c>
       <c r="P14" t="n">
-        <v>271.9225890082162</v>
+        <v>271.7521096605709</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31618,28 +31807,28 @@
         <v>0.0251</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2094908948502728</v>
+        <v>-0.1890461358428199</v>
       </c>
       <c r="J15" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K15" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00745788115394086</v>
+        <v>0.00612290056423237</v>
       </c>
       <c r="M15" t="n">
-        <v>14.42972957150625</v>
+        <v>14.45853482205588</v>
       </c>
       <c r="N15" t="n">
-        <v>319.6016586269349</v>
+        <v>319.7010848210162</v>
       </c>
       <c r="O15" t="n">
-        <v>17.87740637304346</v>
+        <v>17.88018693473355</v>
       </c>
       <c r="P15" t="n">
-        <v>285.4303160186937</v>
+        <v>285.2249780139798</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31687,31 +31876,31 @@
         <v>0.0249</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0257</v>
+        <v>0.0256</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3522890171089686</v>
+        <v>-0.32358972758249</v>
       </c>
       <c r="J16" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K16" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01985597671044192</v>
+        <v>0.01684464624947168</v>
       </c>
       <c r="M16" t="n">
-        <v>14.55708117653553</v>
+        <v>14.6312504269065</v>
       </c>
       <c r="N16" t="n">
-        <v>327.2922668770869</v>
+        <v>328.9040150738118</v>
       </c>
       <c r="O16" t="n">
-        <v>18.09122071274039</v>
+        <v>18.13571104406474</v>
       </c>
       <c r="P16" t="n">
-        <v>286.1649698665431</v>
+        <v>285.8690849569008</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -31762,28 +31951,28 @@
         <v>0.0307</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1278609387523966</v>
+        <v>-0.1178602704713307</v>
       </c>
       <c r="J17" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K17" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003227415905082243</v>
+        <v>0.002756724325255533</v>
       </c>
       <c r="M17" t="n">
-        <v>12.93377121858987</v>
+        <v>12.94364875376063</v>
       </c>
       <c r="N17" t="n">
-        <v>269.054310152519</v>
+        <v>268.8970639427803</v>
       </c>
       <c r="O17" t="n">
-        <v>16.40287505751717</v>
+        <v>16.39808110550684</v>
       </c>
       <c r="P17" t="n">
-        <v>278.24640200193</v>
+        <v>278.1432943906026</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -31828,34 +32017,34 @@
         <v>0.04</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0366</v>
+        <v>0.0367</v>
       </c>
       <c r="H18" t="n">
-        <v>0.049</v>
+        <v>0.0496</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2777297868158168</v>
+        <v>0.291529288473608</v>
       </c>
       <c r="J18" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K18" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02085626609011559</v>
+        <v>0.02295633119148199</v>
       </c>
       <c r="M18" t="n">
-        <v>10.76310896617601</v>
+        <v>10.80192762751452</v>
       </c>
       <c r="N18" t="n">
-        <v>193.147703292116</v>
+        <v>193.7561736042223</v>
       </c>
       <c r="O18" t="n">
-        <v>13.8977589305656</v>
+        <v>13.91963266771872</v>
       </c>
       <c r="P18" t="n">
-        <v>263.1994500771189</v>
+        <v>263.0553890635639</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -31893,7 +32082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S436"/>
+  <dimension ref="A1:S439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70329,6 +70518,237 @@
         </is>
       </c>
     </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-28 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>-40.83291673947058,172.87566494886616</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>-40.83295568343237,172.8747146230709</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>-40.83295779976881,172.8737474977254</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>-40.83286780956814,172.8727986106045</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>-40.83292537058981,172.87184980381565</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>-40.832894670301826,172.8709608671307</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>-40.832796190250725,172.87001826673182</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>-40.83263107414932,172.86914492900354</t>
+        </is>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>-40.83247843814271,172.8682137703211</t>
+        </is>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>-40.83228134848354,172.86729151999393</t>
+        </is>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>-40.832188791207884,172.8664208603216</t>
+        </is>
+      </c>
+      <c r="M437" t="inlineStr">
+        <is>
+          <t>-40.832138811025345,172.8654667507154</t>
+        </is>
+      </c>
+      <c r="N437" t="inlineStr">
+        <is>
+          <t>-40.83196623160204,172.86456429011594</t>
+        </is>
+      </c>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>-40.83174627532724,172.86365612844827</t>
+        </is>
+      </c>
+      <c r="P437" t="inlineStr">
+        <is>
+          <t>-40.83152436674657,172.86274734876727</t>
+        </is>
+      </c>
+      <c r="Q437" t="inlineStr"/>
+      <c r="R437" t="inlineStr"/>
+      <c r="S437" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:13:22+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>-40.83288116599338,172.87566606245002</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>-40.83293803178798,172.87471517588656</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>-40.83302797588661,172.8737475367006</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>-40.83296546157256,172.8727986634476</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>-40.83299878976105,172.87184984249873</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>-40.83290616946127,172.8709597421073</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>-40.832858182109305,172.87001227708683</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>-40.832813150801194,172.86911212875938</t>
+        </is>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>-40.832671249169536,172.86817927228216</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>-40.83256226185018,172.86724124299099</t>
+        </is>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>-40.83238862934604,172.86636900928954</t>
+        </is>
+      </c>
+      <c r="M438" t="inlineStr">
+        <is>
+          <t>-40.83219573074679,172.86545198122784</t>
+        </is>
+      </c>
+      <c r="N438" t="inlineStr">
+        <is>
+          <t>-40.83201325347051,172.86455092409193</t>
+        </is>
+      </c>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t>-40.831747948386294,172.8636556528572</t>
+        </is>
+      </c>
+      <c r="P438" t="inlineStr">
+        <is>
+          <t>-40.83161842851886,172.86272072708758</t>
+        </is>
+      </c>
+      <c r="Q438" t="inlineStr">
+        <is>
+          <t>-40.83153213757379,172.86174697756687</t>
+        </is>
+      </c>
+      <c r="R438" t="inlineStr">
+        <is>
+          <t>-40.831400203507094,172.8608141937465</t>
+        </is>
+      </c>
+      <c r="S438" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:13:19+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr"/>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr"/>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>-40.83309303079746,172.87094146042193</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>-40.83299492356777,172.86999906510522</t>
+        </is>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>-40.83294720918899,172.86908797866016</t>
+        </is>
+      </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>-40.8327758669973,172.8681605538175</t>
+        </is>
+      </c>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="inlineStr"/>
+      <c r="M439" t="inlineStr"/>
+      <c r="N439" t="inlineStr"/>
+      <c r="O439" t="inlineStr"/>
+      <c r="P439" t="inlineStr"/>
+      <c r="Q439" t="inlineStr"/>
+      <c r="R439" t="inlineStr"/>
+      <c r="S439" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0571/nzd0571.xlsx
+++ b/data/nzd0571/nzd0571.xlsx
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>281.9</v>
+        <v>276.26</v>
       </c>
       <c r="C2" t="n">
         <v>277.66</v>
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>280.94</v>
+        <v>275.48</v>
       </c>
       <c r="C3" t="n">
         <v>275.94</v>
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297.23</v>
+        <v>298.8</v>
       </c>
       <c r="C4" t="n">
         <v>296.37</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>277.66</v>
+        <v>281.62</v>
       </c>
       <c r="C5" t="n">
         <v>280.34</v>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>294.2</v>
+        <v>298.06</v>
       </c>
       <c r="C6" t="n">
         <v>289.77</v>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>270.06</v>
+        <v>264.02</v>
       </c>
       <c r="C7" t="n">
         <v>259.89</v>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>268.07</v>
+        <v>262.07</v>
       </c>
       <c r="C8" t="n">
         <v>274.89</v>
@@ -966,9 +966,7 @@
           <t>2000-05-08 22:05:09+00:00</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>301.92</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
         <v>293.5</v>
       </c>
@@ -1022,7 +1020,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>265.51</v>
+        <v>262.62</v>
       </c>
       <c r="C10" t="n">
         <v>259.53</v>
@@ -1085,7 +1083,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.82</v>
+        <v>271.21</v>
       </c>
       <c r="C11" t="n">
         <v>273.47</v>
@@ -1148,7 +1146,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>262.43</v>
+        <v>257.61</v>
       </c>
       <c r="C12" t="n">
         <v>253.75</v>
@@ -1270,7 +1268,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>271.64</v>
+        <v>273.14</v>
       </c>
       <c r="C14" t="n">
         <v>271.21</v>
@@ -1331,7 +1329,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>297.78</v>
+        <v>301.21</v>
       </c>
       <c r="C15" t="n">
         <v>291.82</v>
@@ -1388,7 +1386,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>276.92</v>
+        <v>277.28</v>
       </c>
       <c r="C16" t="n">
         <v>274.96</v>
@@ -1451,7 +1449,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>257.26</v>
+        <v>257.15</v>
       </c>
       <c r="C17" t="n">
         <v>248.87</v>
@@ -1512,7 +1510,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>269.38</v>
+        <v>265.59</v>
       </c>
       <c r="C18" t="n">
         <v>264.93</v>
@@ -1575,7 +1573,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>282.53</v>
+        <v>276.92</v>
       </c>
       <c r="C19" t="n">
         <v>278.96</v>
@@ -1638,7 +1636,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>269.68</v>
+        <v>272.39</v>
       </c>
       <c r="C20" t="n">
         <v>263.09</v>
@@ -1695,7 +1693,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>287.88</v>
+        <v>290.81</v>
       </c>
       <c r="C21" t="n">
         <v>284.07</v>
@@ -1754,7 +1752,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>272.57</v>
+        <v>268.21</v>
       </c>
       <c r="C22" t="n">
         <v>268.78</v>
@@ -1817,7 +1815,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>282.89</v>
+        <v>276</v>
       </c>
       <c r="C23" t="n">
         <v>271.99</v>
@@ -1880,7 +1878,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>265.36</v>
+        <v>265.93</v>
       </c>
       <c r="C24" t="n">
         <v>260.49</v>
@@ -1943,7 +1941,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>277.96</v>
+        <v>271.53</v>
       </c>
       <c r="C25" t="n">
         <v>269.76</v>
@@ -2063,7 +2061,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>267.59</v>
+        <v>267.88</v>
       </c>
       <c r="C27" t="n">
         <v>261.32</v>
@@ -2120,7 +2118,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>258.84</v>
+        <v>258.55</v>
       </c>
       <c r="C28" t="n">
         <v>256.07</v>
@@ -2183,7 +2181,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>266.19</v>
+        <v>265.19</v>
       </c>
       <c r="C29" t="n">
         <v>254.62</v>
@@ -2246,7 +2244,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>286.65</v>
+        <v>280.01</v>
       </c>
       <c r="C30" t="n">
         <v>279.81</v>
@@ -2309,7 +2307,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>268.31</v>
+        <v>263.6</v>
       </c>
       <c r="C31" t="n">
         <v>272.74</v>
@@ -2372,7 +2370,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>272.24</v>
+        <v>267.6</v>
       </c>
       <c r="C32" t="n">
         <v>268.6</v>
@@ -2435,7 +2433,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>256.65</v>
+        <v>255.36</v>
       </c>
       <c r="C33" t="n">
         <v>248.41</v>
@@ -2498,7 +2496,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.45</v>
+        <v>248.59</v>
       </c>
       <c r="C34" t="n">
         <v>241.79</v>
@@ -2559,7 +2557,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>268.98</v>
+        <v>270.59</v>
       </c>
       <c r="C35" t="n">
         <v>254.8</v>
@@ -2618,7 +2616,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>279.57</v>
+        <v>274.11</v>
       </c>
       <c r="C36" t="n">
         <v>272.95</v>
@@ -2681,7 +2679,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>293.79</v>
+        <v>297.15</v>
       </c>
       <c r="C37" t="n">
         <v>280.83</v>
@@ -2738,7 +2736,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>265.96</v>
+        <v>266.64</v>
       </c>
       <c r="C38" t="n">
         <v>257.48</v>
@@ -2801,7 +2799,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>264.55</v>
+        <v>261.73</v>
       </c>
       <c r="C39" t="n">
         <v>256.04</v>
@@ -2864,7 +2862,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>272.2</v>
+        <v>266.88</v>
       </c>
       <c r="C40" t="n">
         <v>261.61</v>
@@ -2927,7 +2925,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>291.88</v>
+        <v>295.67</v>
       </c>
       <c r="C41" t="n">
         <v>281.38</v>
@@ -2984,7 +2982,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>264.24</v>
+        <v>258.88</v>
       </c>
       <c r="C42" t="n">
         <v>257.43</v>
@@ -3047,7 +3045,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>269.94</v>
+        <v>270.55</v>
       </c>
       <c r="C43" t="n">
         <v>265.47</v>
@@ -3110,7 +3108,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C44" t="n">
         <v>274.26</v>
@@ -3173,7 +3171,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>280.89</v>
+        <v>275.64</v>
       </c>
       <c r="C45" t="n">
         <v>274.76</v>
@@ -3236,7 +3234,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>271.29</v>
+        <v>272.36</v>
       </c>
       <c r="C46" t="n">
         <v>234.91</v>
@@ -3293,7 +3291,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>261.81</v>
+        <v>259.63</v>
       </c>
       <c r="C47" t="n">
         <v>257.58</v>
@@ -3352,7 +3350,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>279.69</v>
+        <v>274.69</v>
       </c>
       <c r="C48" t="n">
         <v>272.64</v>
@@ -3415,7 +3413,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>272.01</v>
+        <v>267.12</v>
       </c>
       <c r="C49" t="n">
         <v>266.95</v>
@@ -3509,7 +3507,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>295.2</v>
+        <v>297.24</v>
       </c>
       <c r="C51" t="n">
         <v>290.33</v>
@@ -3566,7 +3564,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>274.52</v>
+        <v>269.52</v>
       </c>
       <c r="C52" t="n">
         <v>268.07</v>
@@ -3629,7 +3627,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>249.98</v>
+        <v>250.34</v>
       </c>
       <c r="C53" t="n">
         <v>247.2</v>
@@ -3670,7 +3668,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>256.11</v>
+        <v>256.43</v>
       </c>
       <c r="C54" t="n">
         <v>253.66</v>
@@ -3731,7 +3729,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>259.53</v>
+        <v>254.6</v>
       </c>
       <c r="C55" t="n">
         <v>262.12</v>
@@ -3794,7 +3792,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>287.36</v>
+        <v>291.36</v>
       </c>
       <c r="C56" t="n">
         <v>276.98</v>
@@ -3851,7 +3849,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>258.04</v>
+        <v>252.75</v>
       </c>
       <c r="C57" t="n">
         <v>256.76</v>
@@ -3975,7 +3973,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>239.29</v>
+        <v>240.25</v>
       </c>
       <c r="C59" t="n">
         <v>233.61</v>
@@ -4034,7 +4032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>264.35</v>
+        <v>265.24</v>
       </c>
       <c r="C60" t="n">
         <v>254.47</v>
@@ -4097,7 +4095,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>279.12</v>
+        <v>280.01</v>
       </c>
       <c r="C61" t="n">
         <v>276.12</v>
@@ -4156,7 +4154,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>274.73</v>
+        <v>269.19</v>
       </c>
       <c r="C62" t="n">
         <v>268.36</v>
@@ -4219,7 +4217,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>300.97</v>
+        <v>304.11</v>
       </c>
       <c r="C63" t="n">
         <v>266.7</v>
@@ -4278,7 +4276,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>282.6</v>
+        <v>276.35</v>
       </c>
       <c r="C64" t="n">
         <v>271.78</v>
@@ -4376,7 +4374,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>270.18</v>
+        <v>264.97</v>
       </c>
       <c r="C66" t="n">
         <v>264.69</v>
@@ -4496,7 +4494,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>265.11</v>
+        <v>263.36</v>
       </c>
       <c r="C68" t="n">
         <v>261.93</v>
@@ -4618,7 +4616,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>280.05</v>
+        <v>275.05</v>
       </c>
       <c r="C70" t="n">
         <v>271.48</v>
@@ -4681,7 +4679,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>277.21</v>
+        <v>272.03</v>
       </c>
       <c r="C71" t="n">
         <v>272.37</v>
@@ -4744,7 +4742,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>275.77</v>
+        <v>270.7</v>
       </c>
       <c r="C72" t="n">
         <v>272.32</v>
@@ -4803,7 +4801,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>265.34</v>
+        <v>263.2</v>
       </c>
       <c r="C73" t="n">
         <v>258.06</v>
@@ -4862,7 +4860,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>241.49</v>
+        <v>245.03</v>
       </c>
       <c r="C74" t="n">
         <v>231.07</v>
@@ -4917,7 +4915,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>291.18</v>
+        <v>294.72</v>
       </c>
       <c r="C75" t="n">
         <v>276.86</v>
@@ -4976,7 +4974,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>283.11</v>
+        <v>276.93</v>
       </c>
       <c r="C76" t="n">
         <v>276.45</v>
@@ -5039,7 +5037,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>269.59</v>
+        <v>264.88</v>
       </c>
       <c r="C77" t="n">
         <v>261.48</v>
@@ -5102,7 +5100,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>271.31</v>
+        <v>271.92</v>
       </c>
       <c r="C78" t="n">
         <v>261.93</v>
@@ -5159,7 +5157,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>276.23</v>
+        <v>278.59</v>
       </c>
       <c r="C79" t="n">
         <v>270.22</v>
@@ -5218,7 +5216,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>263.55</v>
+        <v>264.01</v>
       </c>
       <c r="C80" t="n">
         <v>266.05</v>
@@ -5310,7 +5308,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>279.92</v>
+        <v>273.85</v>
       </c>
       <c r="C82" t="n">
         <v>273.85</v>
@@ -5373,7 +5371,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>276.32</v>
+        <v>270.57</v>
       </c>
       <c r="C83" t="n">
         <v>274.21</v>
@@ -5428,7 +5426,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>264.02</v>
+        <v>262.23</v>
       </c>
       <c r="C84" t="n">
         <v>258.53</v>
@@ -5491,7 +5489,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>283.15</v>
+        <v>278.36</v>
       </c>
       <c r="C85" t="n">
         <v>281.95</v>
@@ -5554,7 +5552,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>280.91</v>
+        <v>275.95</v>
       </c>
       <c r="C86" t="n">
         <v>276.6</v>
@@ -5656,7 +5654,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>265.66</v>
+        <v>262.59</v>
       </c>
       <c r="C88" t="n">
         <v>265.39</v>
@@ -5719,7 +5717,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>266.27</v>
+        <v>267.13</v>
       </c>
       <c r="C89" t="n">
         <v>247.63</v>
@@ -5829,7 +5827,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>279.15</v>
+        <v>273.65</v>
       </c>
       <c r="C91" t="n">
         <v>274.37</v>
@@ -5892,7 +5890,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>278.46</v>
+        <v>271.64</v>
       </c>
       <c r="C92" t="n">
         <v>271.92</v>
@@ -6004,7 +6002,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>270.77</v>
+        <v>266.34</v>
       </c>
       <c r="C94" t="n">
         <v>267.18</v>
@@ -6067,7 +6065,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>258.43</v>
+        <v>259.57</v>
       </c>
       <c r="C95" t="n">
         <v>252.58</v>
@@ -6128,7 +6126,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>294.18</v>
+        <v>296.89</v>
       </c>
       <c r="C96" t="n">
         <v>283.3</v>
@@ -6279,7 +6277,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>304.95</v>
+        <v>307.81</v>
       </c>
       <c r="C99" t="n">
         <v>293.2</v>
@@ -6326,7 +6324,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>281.85</v>
+        <v>276.85</v>
       </c>
       <c r="C100" t="n">
         <v>279.81</v>
@@ -6389,7 +6387,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>277.53</v>
+        <v>273.78</v>
       </c>
       <c r="C101" t="n">
         <v>270.56</v>
@@ -6503,7 +6501,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>270.26</v>
+        <v>271.55</v>
       </c>
       <c r="C103" t="n">
         <v>271.24</v>
@@ -6564,7 +6562,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>237.17</v>
+        <v>234.99</v>
       </c>
       <c r="C104" t="n">
         <v>235.42</v>
@@ -6627,7 +6625,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>274.25</v>
+        <v>269.5</v>
       </c>
       <c r="C105" t="n">
         <v>269.42</v>
@@ -6690,7 +6688,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>277.47</v>
+        <v>271.58</v>
       </c>
       <c r="C106" t="n">
         <v>264.62</v>
@@ -6753,7 +6751,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>264.03</v>
+        <v>264.71</v>
       </c>
       <c r="C107" t="n">
         <v>255.52</v>
@@ -6877,7 +6875,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>262.21</v>
+        <v>261.25</v>
       </c>
       <c r="C109" t="n">
         <v>250.86</v>
@@ -6940,7 +6938,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>258.42</v>
+        <v>257.56</v>
       </c>
       <c r="C110" t="n">
         <v>249.67</v>
@@ -7003,7 +7001,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>290.13</v>
+        <v>293.31</v>
       </c>
       <c r="C111" t="n">
         <v>266.63</v>
@@ -7036,7 +7034,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>266.58</v>
+        <v>267.87</v>
       </c>
       <c r="C112" t="n">
         <v>282.33</v>
@@ -7085,7 +7083,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>268.04</v>
+        <v>266.22</v>
       </c>
       <c r="C113" t="n">
         <v>265.94</v>
@@ -7148,7 +7146,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>284.32</v>
+        <v>279.93</v>
       </c>
       <c r="C114" t="n">
         <v>276.21</v>
@@ -7197,7 +7195,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>280.09</v>
+        <v>274.38</v>
       </c>
       <c r="C115" t="n">
         <v>275.82</v>
@@ -7319,7 +7317,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>255.8</v>
+        <v>255.16</v>
       </c>
       <c r="C117" t="n">
         <v>249.33</v>
@@ -7382,7 +7380,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>273.32</v>
+        <v>274.75</v>
       </c>
       <c r="C118" t="n">
         <v>267.91</v>
@@ -7445,7 +7443,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>282.16</v>
+        <v>276.45</v>
       </c>
       <c r="C119" t="n">
         <v>274.7</v>
@@ -7508,7 +7506,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>287.19</v>
+        <v>290.23</v>
       </c>
       <c r="C120" t="n">
         <v>264.86</v>
@@ -7563,7 +7561,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>261.79</v>
+        <v>261.83</v>
       </c>
       <c r="C121" t="n">
         <v>258.2</v>
@@ -7681,7 +7679,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>282.83</v>
+        <v>286.12</v>
       </c>
       <c r="C123" t="n">
         <v>286.98</v>
@@ -7726,7 +7724,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>264.59</v>
+        <v>266.2</v>
       </c>
       <c r="C124" t="n">
         <v>270.19</v>
@@ -7785,7 +7783,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>262.6</v>
+        <v>264.56</v>
       </c>
       <c r="C125" t="n">
         <v>265.7</v>
@@ -7834,7 +7832,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>284.14</v>
+        <v>279.85</v>
       </c>
       <c r="C126" t="n">
         <v>273.3</v>
@@ -7897,7 +7895,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>283.37</v>
+        <v>278.58</v>
       </c>
       <c r="C127" t="n">
         <v>275.95</v>
@@ -7960,7 +7958,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>278.53</v>
+        <v>280.57</v>
       </c>
       <c r="C128" t="n">
         <v>272.46</v>
@@ -8015,7 +8013,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>273.36</v>
+        <v>276.4</v>
       </c>
       <c r="C129" t="n">
         <v>270.56</v>
@@ -8064,7 +8062,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>292.7</v>
+        <v>296.06</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
@@ -8112,9 +8110,7 @@
           <t>2010-02-13 22:04:54+00:00</t>
         </is>
       </c>
-      <c r="B131" t="n">
-        <v>260.46</v>
-      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
         <v>255.98</v>
       </c>
@@ -8161,7 +8157,9 @@
           <t>2010-02-21 22:03:56+00:00</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr"/>
+      <c r="B132" t="n">
+        <v>306.42</v>
+      </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
         <v>330.82</v>
@@ -8205,7 +8203,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>255.11</v>
+        <v>256.97</v>
       </c>
       <c r="C133" t="n">
         <v>231.59</v>
@@ -8262,7 +8260,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>266.85</v>
+        <v>264.49</v>
       </c>
       <c r="C134" t="n">
         <v>261.66</v>
@@ -8378,7 +8376,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>287.36</v>
+        <v>280.15</v>
       </c>
       <c r="C136" t="n">
         <v>279.62</v>
@@ -8439,7 +8437,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>271.74</v>
+        <v>269.78</v>
       </c>
       <c r="C137" t="n">
         <v>263.03</v>
@@ -8502,7 +8500,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>265.95</v>
+        <v>261.41</v>
       </c>
       <c r="C138" t="n">
         <v>256.2</v>
@@ -8565,7 +8563,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>257.96</v>
+        <v>253.25</v>
       </c>
       <c r="C139" t="n">
         <v>253.61</v>
@@ -8628,7 +8626,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>274.34</v>
+        <v>277.3</v>
       </c>
       <c r="C140" t="n">
         <v>276.3</v>
@@ -8681,7 +8679,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>273.36</v>
+        <v>275.5</v>
       </c>
       <c r="C141" t="n">
         <v>267.72</v>
@@ -8789,7 +8787,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>251.19</v>
+        <v>252.01</v>
       </c>
       <c r="C143" t="n">
         <v>248.03</v>
@@ -8852,7 +8850,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>255.1</v>
+        <v>254.35</v>
       </c>
       <c r="C144" t="n">
         <v>249.7</v>
@@ -8915,7 +8913,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>265.01</v>
+        <v>261.55</v>
       </c>
       <c r="C145" t="n">
         <v>260.19</v>
@@ -8978,7 +8976,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>267.46</v>
+        <v>262.6</v>
       </c>
       <c r="C146" t="n">
         <v>265.1</v>
@@ -9041,7 +9039,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>271.6</v>
+        <v>265.67</v>
       </c>
       <c r="C147" t="n">
         <v>266.36</v>
@@ -9086,7 +9084,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>290.44</v>
+        <v>292.98</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
@@ -9135,7 +9133,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>278.79</v>
+        <v>280</v>
       </c>
       <c r="C149" t="n">
         <v>274.74</v>
@@ -9196,7 +9194,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>275.23</v>
+        <v>270.37</v>
       </c>
       <c r="C150" t="n">
         <v>269.77</v>
@@ -9233,7 +9231,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>266.57</v>
+        <v>267.71</v>
       </c>
       <c r="C151" t="n">
         <v>270.16</v>
@@ -9286,7 +9284,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>242.19</v>
+        <v>246.12</v>
       </c>
       <c r="C152" t="n">
         <v>248.8</v>
@@ -9345,7 +9343,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>278.8</v>
+        <v>273.09</v>
       </c>
       <c r="C153" t="n">
         <v>275.37</v>
@@ -9469,7 +9467,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>254.26</v>
+        <v>252.62</v>
       </c>
       <c r="C155" t="n">
         <v>250.99</v>
@@ -9532,7 +9530,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>257.35</v>
+        <v>256.49</v>
       </c>
       <c r="C156" t="n">
         <v>262.02</v>
@@ -9595,7 +9593,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>224.82</v>
+        <v>227.86</v>
       </c>
       <c r="C157" t="n">
         <v>237.63</v>
@@ -9658,7 +9656,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>271.93</v>
+        <v>265.75</v>
       </c>
       <c r="C158" t="n">
         <v>276.37</v>
@@ -9721,7 +9719,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>291.35</v>
+        <v>283.92</v>
       </c>
       <c r="C159" t="n">
         <v>286.58</v>
@@ -9784,7 +9782,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>279.22</v>
+        <v>274.9</v>
       </c>
       <c r="C160" t="n">
         <v>275.38</v>
@@ -9829,7 +9827,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>270.97</v>
+        <v>267.47</v>
       </c>
       <c r="C161" t="n">
         <v>269.57</v>
@@ -9892,7 +9890,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>268.29</v>
+        <v>264.83</v>
       </c>
       <c r="C162" t="n">
         <v>264.89</v>
@@ -9955,7 +9953,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>299.23</v>
+        <v>302.69</v>
       </c>
       <c r="C163" t="n">
         <v>295.2</v>
@@ -10012,7 +10010,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>296.8</v>
+        <v>300.12</v>
       </c>
       <c r="C164" t="n">
         <v>293.15</v>
@@ -10069,7 +10067,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>294.5</v>
+        <v>297</v>
       </c>
       <c r="C165" t="n">
         <v>291.85</v>
@@ -10128,7 +10126,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>284.64</v>
+        <v>286.96</v>
       </c>
       <c r="C166" t="n">
         <v>282.41</v>
@@ -10189,7 +10187,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>257.37</v>
+        <v>256.66</v>
       </c>
       <c r="C167" t="n">
         <v>256.14</v>
@@ -10252,7 +10250,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>271.79</v>
+        <v>267.58</v>
       </c>
       <c r="C168" t="n">
         <v>267.14</v>
@@ -10344,7 +10342,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>286.93</v>
+        <v>280.57</v>
       </c>
       <c r="C170" t="n">
         <v>283.5</v>
@@ -10407,7 +10405,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>272.75</v>
+        <v>268.93</v>
       </c>
       <c r="C171" t="n">
         <v>268.78</v>
@@ -10466,7 +10464,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>256.8</v>
+        <v>255.44</v>
       </c>
       <c r="C172" t="n">
         <v>254.6</v>
@@ -10501,7 +10499,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>260.93</v>
+        <v>259.39</v>
       </c>
       <c r="C173" t="n">
         <v>257.09</v>
@@ -10564,7 +10562,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>279.27</v>
+        <v>274.77</v>
       </c>
       <c r="C174" t="n">
         <v>275.41</v>
@@ -10627,7 +10625,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>292.01</v>
+        <v>285.26</v>
       </c>
       <c r="C175" t="n">
         <v>287.36</v>
@@ -10690,7 +10688,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>259.4</v>
+        <v>261.11</v>
       </c>
       <c r="C176" t="n">
         <v>256.05</v>
@@ -10745,7 +10743,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>285.95</v>
+        <v>289.66</v>
       </c>
       <c r="C177" t="n">
         <v>284.74</v>
@@ -10796,7 +10794,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>272.14</v>
+        <v>265.71</v>
       </c>
       <c r="C178" t="n">
         <v>272.62</v>
@@ -10859,7 +10857,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>263.63</v>
+        <v>259.95</v>
       </c>
       <c r="C179" t="n">
         <v>258.35</v>
@@ -10922,7 +10920,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>251.68</v>
+        <v>253.54</v>
       </c>
       <c r="C180" t="n">
         <v>248.59</v>
@@ -11032,7 +11030,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>259.27</v>
+        <v>256.77</v>
       </c>
       <c r="C182" t="n">
         <v>255.18</v>
@@ -11095,7 +11093,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>261.39</v>
+        <v>261.35</v>
       </c>
       <c r="C183" t="n">
         <v>254.28</v>
@@ -11158,7 +11156,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>267.44</v>
+        <v>263.51</v>
       </c>
       <c r="C184" t="n">
         <v>263.68</v>
@@ -11221,7 +11219,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>301.49</v>
+        <v>304.45</v>
       </c>
       <c r="C185" t="n">
         <v>292.08</v>
@@ -11278,7 +11276,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>275.11</v>
+        <v>267.61</v>
       </c>
       <c r="C186" t="n">
         <v>272.01</v>
@@ -11341,7 +11339,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>277.83</v>
+        <v>280.04</v>
       </c>
       <c r="C187" t="n">
         <v>275.47</v>
@@ -11402,7 +11400,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>280.27</v>
+        <v>282.63</v>
       </c>
       <c r="C188" t="n">
         <v>267.83</v>
@@ -11459,7 +11457,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>264.02</v>
+        <v>262.7</v>
       </c>
       <c r="C189" t="n">
         <v>256.41</v>
@@ -11522,7 +11520,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>265.63</v>
+        <v>263.52</v>
       </c>
       <c r="C190" t="n">
         <v>260.69</v>
@@ -11585,7 +11583,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>257.89</v>
+        <v>253.68</v>
       </c>
       <c r="C191" t="n">
         <v>259.95</v>
@@ -11648,7 +11646,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>281.91</v>
+        <v>283.55</v>
       </c>
       <c r="C192" t="n">
         <v>276.53</v>
@@ -11707,7 +11705,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>285.85</v>
+        <v>279.35</v>
       </c>
       <c r="C193" t="n">
         <v>277.77</v>
@@ -11770,7 +11768,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>251.71</v>
+        <v>254.6</v>
       </c>
       <c r="C194" t="n">
         <v>243.79</v>
@@ -11823,7 +11821,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>291.23</v>
+        <v>284.87</v>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="n">
@@ -11924,7 +11922,9 @@
           <t>2014-07-02 22:10:31+00:00</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr"/>
+      <c r="B197" t="n">
+        <v>245.84</v>
+      </c>
       <c r="C197" t="n">
         <v>243.16</v>
       </c>
@@ -11976,7 +11976,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>287.78</v>
+        <v>280.6</v>
       </c>
       <c r="C198" t="n">
         <v>279.56</v>
@@ -12039,7 +12039,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>278.26</v>
+        <v>273.51</v>
       </c>
       <c r="C199" t="n">
         <v>272.79</v>
@@ -12102,7 +12102,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>253.27</v>
+        <v>252.13</v>
       </c>
       <c r="C200" t="n">
         <v>246.95</v>
@@ -12165,7 +12165,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>255.86</v>
+        <v>254.22</v>
       </c>
       <c r="C201" t="n">
         <v>250.68</v>
@@ -12228,7 +12228,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>264.26</v>
+        <v>260.4</v>
       </c>
       <c r="C202" t="n">
         <v>261.33</v>
@@ -12291,7 +12291,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>289.91</v>
+        <v>292.2</v>
       </c>
       <c r="C203" t="n">
         <v>282.73</v>
@@ -12348,7 +12348,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>268.28</v>
+        <v>263.6</v>
       </c>
       <c r="C204" t="n">
         <v>254.36</v>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>285.44</v>
+        <v>288.48</v>
       </c>
       <c r="C205" t="n">
         <v>278.98</v>
@@ -12458,7 +12458,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>265.53</v>
+        <v>259.28</v>
       </c>
       <c r="C206" t="n">
         <v>264.89</v>
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>274.16</v>
+        <v>276.95</v>
       </c>
       <c r="C207" t="n">
         <v>254.18</v>
@@ -12580,7 +12580,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>260.21</v>
+        <v>257.32</v>
       </c>
       <c r="C208" t="n">
         <v>253.97</v>
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>293.92</v>
+        <v>297.63</v>
       </c>
       <c r="C210" t="n">
         <v>288.53</v>
@@ -12749,7 +12749,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>296.46</v>
+        <v>299.14</v>
       </c>
       <c r="C211" t="n">
         <v>283.91</v>
@@ -12806,7 +12806,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>283.37</v>
+        <v>275.62</v>
       </c>
       <c r="C212" t="n">
         <v>276.3</v>
@@ -12869,7 +12869,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>272.36</v>
+        <v>274.4</v>
       </c>
       <c r="C213" t="n">
         <v>267.37</v>
@@ -12926,7 +12926,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>266.87</v>
+        <v>261.87</v>
       </c>
       <c r="C214" t="n">
         <v>263.04</v>
@@ -12989,7 +12989,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>261.96</v>
+        <v>259.35</v>
       </c>
       <c r="C215" t="n">
         <v>257.02</v>
@@ -13052,7 +13052,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>258.13</v>
+        <v>256.31</v>
       </c>
       <c r="C216" t="n">
         <v>253.41</v>
@@ -13148,7 +13148,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>278.43</v>
+        <v>273.72</v>
       </c>
       <c r="C218" t="n">
         <v>273.85</v>
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>218.37</v>
+        <v>222.48</v>
       </c>
       <c r="C221" t="n">
         <v>206.36</v>
@@ -13366,7 +13366,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>233.63</v>
+        <v>236.77</v>
       </c>
       <c r="C222" t="n">
         <v>215.32</v>
@@ -13413,7 +13413,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>253.4</v>
+        <v>255.97</v>
       </c>
       <c r="C223" t="n">
         <v>224.6</v>
@@ -13466,7 +13466,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>261.27</v>
+        <v>258.91</v>
       </c>
       <c r="C224" t="n">
         <v>254.86</v>
@@ -13529,7 +13529,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>263.02</v>
+        <v>261.31</v>
       </c>
       <c r="C225" t="n">
         <v>255.59</v>
@@ -13592,7 +13592,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>264.03</v>
+        <v>260.24</v>
       </c>
       <c r="C226" t="n">
         <v>258.8</v>
@@ -13655,7 +13655,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>290.39</v>
+        <v>293.43</v>
       </c>
       <c r="C227" t="n">
         <v>279.86</v>
@@ -13759,7 +13759,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>286.77</v>
+        <v>289.84</v>
       </c>
       <c r="C229" t="n">
         <v>282.51</v>
@@ -13812,7 +13812,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>259.97</v>
+        <v>256.97</v>
       </c>
       <c r="C230" t="n">
         <v>254.42</v>
@@ -13875,7 +13875,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>256.22</v>
+        <v>256.72</v>
       </c>
       <c r="C231" t="n">
         <v>251.57</v>
@@ -13979,7 +13979,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>269.01</v>
+        <v>264.83</v>
       </c>
       <c r="C233" t="n">
         <v>260.06</v>
@@ -14134,7 +14134,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>279.51</v>
+        <v>271.83</v>
       </c>
       <c r="C236" t="n">
         <v>276.91</v>
@@ -14197,7 +14197,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>272.96</v>
+        <v>268.25</v>
       </c>
       <c r="C237" t="n">
         <v>265.36</v>
@@ -14260,7 +14260,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>276.48</v>
+        <v>278.77</v>
       </c>
       <c r="C238" t="n">
         <v>269.64</v>
@@ -14319,7 +14319,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>262.8</v>
+        <v>260.26</v>
       </c>
       <c r="C239" t="n">
         <v>257.71</v>
@@ -14382,7 +14382,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>258.95</v>
+        <v>257.13</v>
       </c>
       <c r="C240" t="n">
         <v>255.86</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>274</v>
+        <v>272.75</v>
       </c>
       <c r="C241" t="n">
         <v>268.56</v>
@@ -14508,7 +14508,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>299.47</v>
+        <v>302.43</v>
       </c>
       <c r="C242" t="n">
         <v>296.35</v>
@@ -14553,7 +14553,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>298.26</v>
+        <v>291.44</v>
       </c>
       <c r="C243" t="n">
         <v>289.57</v>
@@ -14614,7 +14614,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>259.45</v>
+        <v>260.13</v>
       </c>
       <c r="C244" t="n">
         <v>250.7</v>
@@ -14663,7 +14663,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>258.28</v>
+        <v>256.14</v>
       </c>
       <c r="C245" t="n">
         <v>251.33</v>
@@ -14726,7 +14726,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>264.33</v>
+        <v>261.58</v>
       </c>
       <c r="C246" t="n">
         <v>258.59</v>
@@ -14789,7 +14789,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>269.81</v>
+        <v>266.1</v>
       </c>
       <c r="C247" t="n">
         <v>265.25</v>
@@ -14852,7 +14852,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>270.93</v>
+        <v>273.86</v>
       </c>
       <c r="C248" t="n">
         <v>281.49</v>
@@ -14907,7 +14907,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>257.15</v>
+        <v>254.79</v>
       </c>
       <c r="C249" t="n">
         <v>252.07</v>
@@ -14970,7 +14970,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>248.42</v>
+        <v>245.28</v>
       </c>
       <c r="C250" t="n">
         <v>239.23</v>
@@ -15033,7 +15033,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>264.19</v>
+        <v>258.76</v>
       </c>
       <c r="C251" t="n">
         <v>257.05</v>
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>246.36</v>
+        <v>249.54</v>
       </c>
       <c r="C252" t="n">
         <v>251.58</v>
@@ -15155,7 +15155,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>262.38</v>
+        <v>259.13</v>
       </c>
       <c r="C253" t="n">
         <v>254.74</v>
@@ -15216,7 +15216,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>254.8</v>
+        <v>254.55</v>
       </c>
       <c r="C254" t="n">
         <v>246.43</v>
@@ -15277,7 +15277,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>265.81</v>
+        <v>262.27</v>
       </c>
       <c r="C255" t="n">
         <v>258.04</v>
@@ -15328,7 +15328,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>286.23</v>
+        <v>278.91</v>
       </c>
       <c r="C256" t="n">
         <v>274.85</v>
@@ -15387,7 +15387,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>268.78</v>
+        <v>270.74</v>
       </c>
       <c r="C257" t="n">
         <v>231.08</v>
@@ -15448,7 +15448,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>262.98</v>
+        <v>260.52</v>
       </c>
       <c r="C258" t="n">
         <v>255.97</v>
@@ -15570,7 +15570,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>280.61</v>
+        <v>275.97</v>
       </c>
       <c r="C260" t="n">
         <v>275.2</v>
@@ -15633,7 +15633,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>292.23</v>
+        <v>285.37</v>
       </c>
       <c r="C261" t="n">
         <v>286.46</v>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>280.53</v>
+        <v>275.71</v>
       </c>
       <c r="C262" t="n">
         <v>275.86</v>
@@ -15729,7 +15729,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>259.89</v>
+        <v>257.71</v>
       </c>
       <c r="C263" t="n">
         <v>254.24</v>
@@ -15784,7 +15784,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>220.4</v>
+        <v>223.58</v>
       </c>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="n">
@@ -15825,7 +15825,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>266.06</v>
+        <v>268.95</v>
       </c>
       <c r="C265" t="n">
         <v>270.27</v>
@@ -15874,7 +15874,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>266.6</v>
+        <v>262.49</v>
       </c>
       <c r="C266" t="n">
         <v>256.13</v>
@@ -15935,7 +15935,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>269.01</v>
+        <v>270.97</v>
       </c>
       <c r="C267" t="n">
         <v>263.49</v>
@@ -15992,7 +15992,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>257.66</v>
+        <v>255.59</v>
       </c>
       <c r="C268" t="n">
         <v>251.18</v>
@@ -16035,7 +16035,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>259.15</v>
+        <v>256.19</v>
       </c>
       <c r="C269" t="n">
         <v>248.66</v>
@@ -16094,7 +16094,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>279.88</v>
+        <v>283.59</v>
       </c>
       <c r="C270" t="n">
         <v>269.61</v>
@@ -16155,7 +16155,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>255.47</v>
+        <v>250.58</v>
       </c>
       <c r="C271" t="n">
         <v>254.6</v>
@@ -16218,7 +16218,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>258.22</v>
+        <v>257.26</v>
       </c>
       <c r="C272" t="n">
         <v>250.25</v>
@@ -16281,7 +16281,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>269.61</v>
+        <v>264.9</v>
       </c>
       <c r="C273" t="n">
         <v>259.51</v>
@@ -16344,7 +16344,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>255.7</v>
+        <v>258.49</v>
       </c>
       <c r="C274" t="n">
         <v>224.89</v>
@@ -16395,7 +16395,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>289.88</v>
+        <v>282.88</v>
       </c>
       <c r="C275" t="n">
         <v>280.23</v>
@@ -16458,7 +16458,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>273.81</v>
+        <v>276.24</v>
       </c>
       <c r="C276" t="n">
         <v>273.5</v>
@@ -16519,7 +16519,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>276.04</v>
+        <v>278.43</v>
       </c>
       <c r="C277" t="n">
         <v>271.06</v>
@@ -16576,7 +16576,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>272.95</v>
+        <v>268.95</v>
       </c>
       <c r="C278" t="n">
         <v>267.39</v>
@@ -16639,7 +16639,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>263.21</v>
+        <v>260.85</v>
       </c>
       <c r="C279" t="n">
         <v>257.79</v>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>274.83</v>
+        <v>270.47</v>
       </c>
       <c r="C282" t="n">
         <v>271.17</v>
@@ -16849,7 +16849,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>284.19</v>
+        <v>281.8</v>
       </c>
       <c r="C283" t="n">
         <v>277.84</v>
@@ -16912,7 +16912,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>252.36</v>
+        <v>251.72</v>
       </c>
       <c r="C284" t="n">
         <v>247.68</v>
@@ -16975,7 +16975,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>266.98</v>
+        <v>263.87</v>
       </c>
       <c r="C285" t="n">
         <v>262.57</v>
@@ -17038,7 +17038,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>279.44</v>
+        <v>272.48</v>
       </c>
       <c r="C286" t="n">
         <v>274.98</v>
@@ -17101,7 +17101,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>277.65</v>
+        <v>280.54</v>
       </c>
       <c r="C287" t="n">
         <v>286.42</v>
@@ -17152,7 +17152,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>266.16</v>
+        <v>262.37</v>
       </c>
       <c r="C288" t="n">
         <v>260.99</v>
@@ -17215,7 +17215,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>255.32</v>
+        <v>256.46</v>
       </c>
       <c r="C289" t="n">
         <v>247.67</v>
@@ -17276,7 +17276,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>259.51</v>
+        <v>254.08</v>
       </c>
       <c r="C290" t="n">
         <v>255.57</v>
@@ -17339,7 +17339,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>280.25</v>
+        <v>273</v>
       </c>
       <c r="C291" t="n">
         <v>291.11</v>
@@ -17402,7 +17402,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>281.09</v>
+        <v>283.77</v>
       </c>
       <c r="C292" t="n">
         <v>278.75</v>
@@ -17463,7 +17463,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>278.74</v>
+        <v>281.38</v>
       </c>
       <c r="C293" t="n">
         <v>280.9</v>
@@ -17524,7 +17524,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>262.74</v>
+        <v>261.1</v>
       </c>
       <c r="C294" t="n">
         <v>254.6</v>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>278.97</v>
+        <v>274.01</v>
       </c>
       <c r="C295" t="n">
         <v>275.19</v>
@@ -17650,7 +17650,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>295.44</v>
+        <v>288.15</v>
       </c>
       <c r="C296" t="n">
         <v>290.12</v>
@@ -17713,7 +17713,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>257.3</v>
+        <v>259.69</v>
       </c>
       <c r="C297" t="n">
         <v>289.2</v>
@@ -17774,7 +17774,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>287.23</v>
+        <v>281.19</v>
       </c>
       <c r="C298" t="n">
         <v>283.37</v>
@@ -17837,7 +17837,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>273.21</v>
+        <v>269.67</v>
       </c>
       <c r="C299" t="n">
         <v>270.05</v>
@@ -17900,7 +17900,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>262.79</v>
+        <v>260.61</v>
       </c>
       <c r="C300" t="n">
         <v>257.29</v>
@@ -17963,7 +17963,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>277.55</v>
+        <v>272.48</v>
       </c>
       <c r="C301" t="n">
         <v>274.97</v>
@@ -18026,7 +18026,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>287.44</v>
+        <v>280.87</v>
       </c>
       <c r="C302" t="n">
         <v>282.07</v>
@@ -18089,7 +18089,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>273.79</v>
+        <v>269.83</v>
       </c>
       <c r="C303" t="n">
         <v>268.21</v>
@@ -18152,7 +18152,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>263.81</v>
+        <v>261.7</v>
       </c>
       <c r="C304" t="n">
         <v>260.02</v>
@@ -18215,7 +18215,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>256.68</v>
+        <v>255.39</v>
       </c>
       <c r="C305" t="n">
         <v>251.75</v>
@@ -18278,7 +18278,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>265.1</v>
+        <v>264.03</v>
       </c>
       <c r="C306" t="n">
         <v>261.66</v>
@@ -18341,7 +18341,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>262.45</v>
+        <v>259.31</v>
       </c>
       <c r="C307" t="n">
         <v>258</v>
@@ -18388,7 +18388,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>276.83</v>
+        <v>272.01</v>
       </c>
       <c r="C308" t="n">
         <v>272.4</v>
@@ -18445,7 +18445,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>262.03</v>
+        <v>258.64</v>
       </c>
       <c r="C309" t="n">
         <v>256.88</v>
@@ -18508,7 +18508,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>253.49</v>
+        <v>254.6</v>
       </c>
       <c r="C310" t="n">
         <v>251.48</v>
@@ -18569,7 +18569,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>287.3</v>
+        <v>290.94</v>
       </c>
       <c r="C311" t="n">
         <v>287.47</v>
@@ -18622,7 +18622,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>238.73</v>
+        <v>241.44</v>
       </c>
       <c r="C312" t="n">
         <v>235.52</v>
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>270.21</v>
+        <v>263.42</v>
       </c>
       <c r="C313" t="n">
         <v>264.02</v>
@@ -18734,7 +18734,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>271.06</v>
+        <v>267.17</v>
       </c>
       <c r="C314" t="n">
         <v>264.34</v>
@@ -18797,7 +18797,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>280.64</v>
+        <v>282.64</v>
       </c>
       <c r="C315" t="n">
         <v>271.54</v>
@@ -18858,7 +18858,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>265.9</v>
+        <v>263.9</v>
       </c>
       <c r="C316" t="n">
         <v>262.18</v>
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>302.64</v>
+        <v>305.46</v>
       </c>
       <c r="C317" t="n">
         <v>293.41</v>
@@ -18972,7 +18972,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>281.25</v>
+        <v>276.14</v>
       </c>
       <c r="C318" t="n">
         <v>276.69</v>
@@ -19034,9 +19034,7 @@
           <t>2020-04-29 21:47:27+00:00</t>
         </is>
       </c>
-      <c r="B319" t="n">
-        <v>330.72</v>
-      </c>
+      <c r="B319" t="inlineStr"/>
       <c r="C319" t="n">
         <v>308.56</v>
       </c>
@@ -19086,7 +19084,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>296.32</v>
+        <v>289.03</v>
       </c>
       <c r="C320" t="n">
         <v>291.35</v>
@@ -19149,7 +19147,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>273.26</v>
+        <v>270.22</v>
       </c>
       <c r="C321" t="n">
         <v>267.73</v>
@@ -19212,7 +19210,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>276.37</v>
+        <v>273.23</v>
       </c>
       <c r="C322" t="n">
         <v>272.37</v>
@@ -19273,7 +19271,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>281.95</v>
+        <v>276.7</v>
       </c>
       <c r="C323" t="n">
         <v>277.73</v>
@@ -19336,7 +19334,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>299.52</v>
+        <v>302.7</v>
       </c>
       <c r="C324" t="n">
         <v>266.8</v>
@@ -19391,7 +19389,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>291.43</v>
+        <v>294.5</v>
       </c>
       <c r="C325" t="n">
         <v>267.91</v>
@@ -19446,7 +19444,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>269.2</v>
+        <v>267.84</v>
       </c>
       <c r="C326" t="n">
         <v>266.52</v>
@@ -19570,7 +19568,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>264.2</v>
+        <v>261.13</v>
       </c>
       <c r="C328" t="n">
         <v>260.23</v>
@@ -19633,7 +19631,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>272.97</v>
+        <v>265.68</v>
       </c>
       <c r="C329" t="n">
         <v>265.61</v>
@@ -19696,7 +19694,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>261.48</v>
+        <v>258.44</v>
       </c>
       <c r="C330" t="n">
         <v>257.49</v>
@@ -19759,7 +19757,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>255.43</v>
+        <v>254.39</v>
       </c>
       <c r="C331" t="n">
         <v>251</v>
@@ -19822,7 +19820,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>269.48</v>
+        <v>265.12</v>
       </c>
       <c r="C332" t="n">
         <v>260.13</v>
@@ -19885,7 +19883,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>280.13</v>
+        <v>274.34</v>
       </c>
       <c r="C333" t="n">
         <v>278.86</v>
@@ -19948,7 +19946,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>277.56</v>
+        <v>279.88</v>
       </c>
       <c r="C334" t="n">
         <v>273.49</v>
@@ -20009,7 +20007,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>260.95</v>
+        <v>261.56</v>
       </c>
       <c r="C335" t="n">
         <v>278.87</v>
@@ -20060,7 +20058,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>264.61</v>
+        <v>261.36</v>
       </c>
       <c r="C336" t="n">
         <v>260.05</v>
@@ -20123,7 +20121,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>266.18</v>
+        <v>263.5</v>
       </c>
       <c r="C337" t="n">
         <v>261.86</v>
@@ -20186,7 +20184,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>272.88</v>
+        <v>269.31</v>
       </c>
       <c r="C338" t="n">
         <v>270.31</v>
@@ -20249,7 +20247,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>224.67</v>
+        <v>227.85</v>
       </c>
       <c r="C339" t="n">
         <v>216.65</v>
@@ -20298,7 +20296,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>224.97</v>
+        <v>227.97</v>
       </c>
       <c r="C340" t="n">
         <v>218.42</v>
@@ -20355,7 +20353,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>257.63</v>
+        <v>255.81</v>
       </c>
       <c r="C341" t="n">
         <v>252.4</v>
@@ -20418,7 +20416,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>264.98</v>
+        <v>266.59</v>
       </c>
       <c r="C342" t="n">
         <v>255.44</v>
@@ -20477,7 +20475,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>259.26</v>
+        <v>259.19</v>
       </c>
       <c r="C343" t="n">
         <v>250.88</v>
@@ -20540,7 +20538,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>260.2</v>
+        <v>257.34</v>
       </c>
       <c r="C344" t="n">
         <v>254.56</v>
@@ -20603,7 +20601,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>279.15</v>
+        <v>272.94</v>
       </c>
       <c r="C345" t="n">
         <v>270.92</v>
@@ -20666,7 +20664,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>270.22</v>
+        <v>265.04</v>
       </c>
       <c r="C346" t="n">
         <v>258.29</v>
@@ -20729,7 +20727,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>256.44</v>
+        <v>251.8</v>
       </c>
       <c r="C347" t="n">
         <v>247.14</v>
@@ -20792,7 +20790,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>278.04</v>
+        <v>279.83</v>
       </c>
       <c r="C348" t="n">
         <v>279.52</v>
@@ -20851,7 +20849,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>267.9</v>
+        <v>271.4</v>
       </c>
       <c r="C349" t="n">
         <v>272.17</v>
@@ -20908,7 +20906,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>257.82</v>
+        <v>255.75</v>
       </c>
       <c r="C350" t="n">
         <v>253.32</v>
@@ -20971,7 +20969,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>275.85</v>
+        <v>271.35</v>
       </c>
       <c r="C351" t="n">
         <v>270.14</v>
@@ -21034,7 +21032,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>258.99</v>
+        <v>256.49</v>
       </c>
       <c r="C352" t="n">
         <v>254.81</v>
@@ -21097,7 +21095,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>258.35</v>
+        <v>253.74</v>
       </c>
       <c r="C353" t="n">
         <v>246.97</v>
@@ -21160,7 +21158,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>253.29</v>
+        <v>249.15</v>
       </c>
       <c r="C354" t="n">
         <v>245.42</v>
@@ -21223,7 +21221,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>270.69</v>
+        <v>265.58</v>
       </c>
       <c r="C355" t="n">
         <v>260.06</v>
@@ -21286,7 +21284,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>235.26</v>
+        <v>237.47</v>
       </c>
       <c r="C356" t="n">
         <v>244.09</v>
@@ -21339,7 +21337,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>262.75</v>
+        <v>265.07</v>
       </c>
       <c r="C357" t="n">
         <v>260.85</v>
@@ -21396,7 +21394,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>270.83</v>
+        <v>270.22</v>
       </c>
       <c r="C358" t="n">
         <v>265.48</v>
@@ -21457,7 +21455,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>262.35</v>
+        <v>259.56</v>
       </c>
       <c r="C359" t="n">
         <v>258.61</v>
@@ -21518,7 +21516,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>232.32</v>
+        <v>234.14</v>
       </c>
       <c r="C360" t="n">
         <v>232.96</v>
@@ -21567,7 +21565,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>283.26</v>
+        <v>276.8</v>
       </c>
       <c r="C361" t="n">
         <v>281.82</v>
@@ -21630,7 +21628,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>276.38</v>
+        <v>272.13</v>
       </c>
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr"/>
@@ -21675,7 +21673,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>277.84</v>
+        <v>273.7</v>
       </c>
       <c r="C363" t="n">
         <v>273.29</v>
@@ -21804,7 +21802,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>265.07</v>
+        <v>262.46</v>
       </c>
       <c r="C366" t="n">
         <v>259.99</v>
@@ -21867,7 +21865,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>255.81</v>
+        <v>254.17</v>
       </c>
       <c r="C367" t="n">
         <v>250.95</v>
@@ -21930,7 +21928,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>245.51</v>
+        <v>246.44</v>
       </c>
       <c r="C368" t="n">
         <v>236.6</v>
@@ -22032,7 +22030,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>255.41</v>
+        <v>253.23</v>
       </c>
       <c r="C370" t="n">
         <v>248.53</v>
@@ -22095,7 +22093,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>260.58</v>
+        <v>257.79</v>
       </c>
       <c r="C371" t="n">
         <v>256.37</v>
@@ -22158,7 +22156,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>271</v>
+        <v>264.32</v>
       </c>
       <c r="C372" t="n">
         <v>263.21</v>
@@ -22220,7 +22218,9 @@
           <t>2022-12-31 22:13:27+00:00</t>
         </is>
       </c>
-      <c r="B373" t="inlineStr"/>
+      <c r="B373" t="n">
+        <v>223.91</v>
+      </c>
       <c r="C373" t="inlineStr"/>
       <c r="D373" t="n">
         <v>213.59</v>
@@ -22256,7 +22256,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>264.47</v>
+        <v>260.04</v>
       </c>
       <c r="C374" t="n">
         <v>259.39</v>
@@ -22319,7 +22319,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>271.42</v>
+        <v>266.99</v>
       </c>
       <c r="C375" t="n">
         <v>263.88</v>
@@ -22382,7 +22382,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>248.95</v>
+        <v>249.09</v>
       </c>
       <c r="C376" t="n">
         <v>248.75</v>
@@ -22445,7 +22445,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>257.19</v>
+        <v>254.55</v>
       </c>
       <c r="C377" t="n">
         <v>252.6</v>
@@ -22508,7 +22508,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>273.49</v>
+        <v>275.24</v>
       </c>
       <c r="C378" t="n">
         <v>277.01</v>
@@ -22565,7 +22565,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>272</v>
+        <v>267.36</v>
       </c>
       <c r="C379" t="n">
         <v>265.85</v>
@@ -22628,7 +22628,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>266.62</v>
+        <v>268.19</v>
       </c>
       <c r="C380" t="n">
         <v>272.71</v>
@@ -22683,7 +22683,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>278.05</v>
+        <v>273.05</v>
       </c>
       <c r="C381" t="n">
         <v>273.73</v>
@@ -22734,7 +22734,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>281.56</v>
+        <v>274.17</v>
       </c>
       <c r="C382" t="n">
         <v>273.21</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>261.14</v>
+        <v>263.21</v>
       </c>
       <c r="C383" t="n">
         <v>274.6</v>
@@ -22854,7 +22854,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>295.79</v>
+        <v>291.29</v>
       </c>
       <c r="C384" t="n">
         <v>273.25</v>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>260.02</v>
+        <v>262.59</v>
       </c>
       <c r="C385" t="n">
         <v>271.47</v>
@@ -22972,7 +22972,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>262.06</v>
+        <v>259.99</v>
       </c>
       <c r="C386" t="n">
         <v>256.63</v>
@@ -23035,7 +23035,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>263.38</v>
+        <v>260.99</v>
       </c>
       <c r="C387" t="n">
         <v>256.55</v>
@@ -23098,7 +23098,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>286.65</v>
+        <v>280.65</v>
       </c>
       <c r="C388" t="n">
         <v>281.59</v>
@@ -23161,7 +23161,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>258.24</v>
+        <v>257.78</v>
       </c>
       <c r="C389" t="n">
         <v>250.65</v>
@@ -23224,7 +23224,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>259.61</v>
+        <v>258.04</v>
       </c>
       <c r="C390" t="n">
         <v>251.61</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>264.37</v>
+        <v>262.41</v>
       </c>
       <c r="C391" t="n">
         <v>257.12</v>
@@ -23350,7 +23350,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>259.89</v>
+        <v>258.71</v>
       </c>
       <c r="C392" t="n">
         <v>251.18</v>
@@ -23393,7 +23393,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>266.41</v>
+        <v>259.23</v>
       </c>
       <c r="C393" t="n">
         <v>260.13</v>
@@ -23456,7 +23456,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>253.99</v>
+        <v>252.13</v>
       </c>
       <c r="C394" t="n">
         <v>249.22</v>
@@ -23515,7 +23515,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>255.89</v>
+        <v>253.25</v>
       </c>
       <c r="C395" t="n">
         <v>249.57</v>
@@ -23574,7 +23574,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>281.71</v>
+        <v>284.5</v>
       </c>
       <c r="C396" t="n">
         <v>269.58</v>
@@ -23629,7 +23629,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>267.78</v>
+        <v>261.35</v>
       </c>
       <c r="C397" t="n">
         <v>263.21</v>
@@ -23692,7 +23692,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>274.44</v>
+        <v>276.76</v>
       </c>
       <c r="C398" t="n">
         <v>265.83</v>
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>251.6</v>
+        <v>249.99</v>
       </c>
       <c r="C400" t="n">
         <v>247.41</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>258.36</v>
+        <v>256.32</v>
       </c>
       <c r="C401" t="n">
         <v>255.35</v>
@@ -23898,7 +23898,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>278.03</v>
+        <v>279.67</v>
       </c>
       <c r="C402" t="n">
         <v>271.12</v>
@@ -23959,7 +23959,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>265.9</v>
+        <v>260.86</v>
       </c>
       <c r="C403" t="n">
         <v>267.97</v>
@@ -24020,7 +24020,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>281.17</v>
+        <v>284.24</v>
       </c>
       <c r="C404" t="n">
         <v>266.72</v>
@@ -24075,7 +24075,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>270.55</v>
+        <v>266.55</v>
       </c>
       <c r="C405" t="n">
         <v>267.46</v>
@@ -24138,7 +24138,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>264.47</v>
+        <v>261.72</v>
       </c>
       <c r="C406" t="n">
         <v>261.7</v>
@@ -24201,7 +24201,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>261.29</v>
+        <v>259</v>
       </c>
       <c r="C407" t="n">
         <v>255.65</v>
@@ -24264,7 +24264,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>278.31</v>
+        <v>273.42</v>
       </c>
       <c r="C408" t="n">
         <v>274.51</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>274.24</v>
+        <v>270.1</v>
       </c>
       <c r="C409" t="n">
         <v>269.5</v>
@@ -24390,7 +24390,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>251.86</v>
+        <v>250.4</v>
       </c>
       <c r="C410" t="n">
         <v>246.65</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>265.6</v>
+        <v>260.35</v>
       </c>
       <c r="C411" t="n">
         <v>262.27</v>
@@ -24516,7 +24516,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>287.85</v>
+        <v>291.42</v>
       </c>
       <c r="C412" t="n">
         <v>278.8</v>
@@ -24563,7 +24563,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>245.67</v>
+        <v>243.03</v>
       </c>
       <c r="C413" t="n">
         <v>242.68</v>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>250.22</v>
+        <v>248.79</v>
       </c>
       <c r="C414" t="n">
         <v>245.25</v>
@@ -24689,7 +24689,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>253.97</v>
+        <v>251.04</v>
       </c>
       <c r="C415" t="n">
         <v>245.97</v>
@@ -24752,7 +24752,7 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>268.24</v>
+        <v>270.88</v>
       </c>
       <c r="C416" t="n">
         <v>267.56</v>
@@ -24811,7 +24811,7 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>270.34</v>
+        <v>273.02</v>
       </c>
       <c r="C417" t="n">
         <v>270.03</v>
@@ -24870,7 +24870,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>274.99</v>
+        <v>278.03</v>
       </c>
       <c r="C418" t="n">
         <v>273.66</v>
@@ -24929,7 +24929,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>269.19</v>
+        <v>264.44</v>
       </c>
       <c r="C419" t="n">
         <v>263.81</v>
@@ -24992,7 +24992,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>273.51</v>
+        <v>275.01</v>
       </c>
       <c r="C420" t="n">
         <v>269.69</v>
@@ -25051,7 +25051,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>267.53</v>
+        <v>263.21</v>
       </c>
       <c r="C421" t="n">
         <v>261.32</v>
@@ -25114,7 +25114,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>258.42</v>
+        <v>256.35</v>
       </c>
       <c r="C422" t="n">
         <v>254.83</v>
@@ -25177,7 +25177,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>255.99</v>
+        <v>254.17</v>
       </c>
       <c r="C423" t="n">
         <v>257.23</v>
@@ -25240,7 +25240,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>263.23</v>
+        <v>260.55</v>
       </c>
       <c r="C424" t="n">
         <v>259.18</v>
@@ -25303,7 +25303,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>280.39</v>
+        <v>275.18</v>
       </c>
       <c r="C425" t="n">
         <v>276.11</v>
@@ -25411,7 +25411,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>267.04</v>
+        <v>263.43</v>
       </c>
       <c r="C427" t="n">
         <v>262.6</v>
@@ -25474,7 +25474,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>243.3</v>
+        <v>243.91</v>
       </c>
       <c r="C428" t="n">
         <v>238.28</v>
@@ -25525,7 +25525,7 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>262.64</v>
+        <v>260.39</v>
       </c>
       <c r="C429" t="n">
         <v>257.6</v>
@@ -25588,7 +25588,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>256.03</v>
+        <v>255.28</v>
       </c>
       <c r="C430" t="n">
         <v>250.81</v>
@@ -25698,7 +25698,7 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>278.62</v>
+        <v>272.91</v>
       </c>
       <c r="C432" t="n">
         <v>271.65</v>
@@ -25761,7 +25761,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>272.99</v>
+        <v>268.49</v>
       </c>
       <c r="C433" t="n">
         <v>268.88</v>
@@ -25824,7 +25824,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>262.48</v>
+        <v>258.41</v>
       </c>
       <c r="C434" t="n">
         <v>257.43</v>
@@ -25887,7 +25887,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>252.8</v>
+        <v>251.66</v>
       </c>
       <c r="C435" t="n">
         <v>245.95</v>
@@ -25950,7 +25950,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>252.43</v>
+        <v>250.29</v>
       </c>
       <c r="C436" t="n">
         <v>245.57</v>
@@ -26013,7 +26013,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>270.76</v>
+        <v>272.72</v>
       </c>
       <c r="C437" t="n">
         <v>264.52</v>
@@ -26072,7 +26072,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>274.71</v>
+        <v>267.75</v>
       </c>
       <c r="C438" t="n">
         <v>266.48</v>
@@ -30871,7 +30871,7 @@
         <v>0.0407</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3868777334743643</v>
+        <v>-0.4244067065508824</v>
       </c>
       <c r="J2" t="n">
         <v>438</v>
@@ -30880,19 +30880,19 @@
         <v>395</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03900202292348065</v>
+        <v>0.04712898821257927</v>
       </c>
       <c r="M2" t="n">
-        <v>10.82358078803493</v>
+        <v>10.68550100667346</v>
       </c>
       <c r="N2" t="n">
-        <v>197.7363526968577</v>
+        <v>193.6546655462188</v>
       </c>
       <c r="O2" t="n">
-        <v>14.06187585981535</v>
+        <v>13.91598597104132</v>
       </c>
       <c r="P2" t="n">
-        <v>275.8260658496322</v>
+        <v>274.3064525146847</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32195,7 +32195,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-40.83281641325833,172.87566808945135</t>
+          <t>-40.832867206780726,172.8756664994256</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -32292,7 +32292,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-40.83282505896431,172.87566781880884</t>
+          <t>-40.83287423141678,172.87566627952825</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -32389,7 +32389,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-40.83267835213917,172.87567241126385</t>
+          <t>-40.83266421280713,172.87567285387505</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -32482,7 +32482,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-40.83285459845961,172.87566689411307</t>
+          <t>-40.83281893492257,172.87566801051395</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -32563,7 +32563,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-40.83270564014929,172.8756715570519</t>
+          <t>-40.832670877205686,172.87567264525578</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -32652,7 +32652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-40.83292304363106,172.87566475152207</t>
+          <t>-40.83297743952987,172.87566304872274</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -32749,7 +32749,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-40.83294096545872,172.87566419050077</t>
+          <t>-40.8329950011196,172.87566249897733</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -32844,11 +32844,7 @@
           <t>2000-05-08 22:05:09+00:00</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-40.83263611426184,172.87567373345848</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>-40.83269469125608,172.87472279681413</t>
@@ -32927,7 +32923,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-40.83296402067409,172.87566346878444</t>
+          <t>-40.8329900478507,172.8756626540338</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -33024,7 +33020,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-40.83286216345229,172.8756666573006</t>
+          <t>-40.83291268679597,172.87566507573018</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -33121,7 +33117,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-40.832991758979965,172.87566260046884</t>
+          <t>-40.83303516762718,172.87566124160975</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -33307,7 +33303,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-40.83290881424023,172.87566519695582</t>
+          <t>-40.832895305324854,172.87566561983581</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -33400,7 +33396,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-40.83267339886999,172.87567256631874</t>
+          <t>-40.83264250848209,172.87567353329695</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -33485,7 +33481,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-40.832861262857925,172.87566668549258</t>
+          <t>-40.832858020718206,172.87566678698363</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -33582,7 +33578,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-40.833038319707356,172.87566114293733</t>
+          <t>-40.83303931036112,172.875661111926</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -33675,7 +33671,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-40.83292916767269,172.8756645598163</t>
+          <t>-40.832963300198614,172.8756634913381</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -33772,7 +33768,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-40.83281073951378,172.87566826706043</t>
+          <t>-40.832861262857925,172.87566668549258</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -33869,7 +33865,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-40.832926465889614,172.87566464439237</t>
+          <t>-40.83290205978255,172.87566540839583</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -33954,7 +33950,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-40.83276255771454,172.87566977532694</t>
+          <t>-40.83273617029908,172.87567060134856</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -34043,7 +34039,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-40.8329004387127,172.87566545914143</t>
+          <t>-40.83293970462661,172.8756642299696</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -34140,7 +34136,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-40.83280749737404,172.87566836855135</t>
+          <t>-40.83286954832608,172.8756664261265</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -34237,7 +34233,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-40.832965371565614,172.87566342649637</t>
+          <t>-40.832960238177826,172.87566358719107</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -34334,7 +34330,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-40.83285189667651,172.87566697868894</t>
+          <t>-40.832909804894015,172.8756651659446</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -34516,7 +34512,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-40.8329452883116,172.875664055179</t>
+          <t>-40.83294267658798,172.87566413693588</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -34601,7 +34597,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-40.83302409031682,172.8756615883727</t>
+          <t>-40.8330267020404,172.8756615066156</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -34698,7 +34694,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-40.832957896632514,172.87566366049037</t>
+          <t>-40.832966902576004,172.87566337856987</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -34795,7 +34791,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-40.832773635025426,172.8756694285668</t>
+          <t>-40.832833434491945,172.87566755662382</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -34892,7 +34888,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-40.832938804032274,172.8756642581616</t>
+          <t>-40.83298122202612,172.87566293031608</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -34989,7 +34985,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-40.83290341067407,172.87566536610785</t>
+          <t>-40.83294519825216,172.8756640579982</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -35086,7 +35082,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-40.83304381333281,172.8756609709654</t>
+          <t>-40.833055430999714,172.87566060728693</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -35183,7 +35179,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-40.83312666801105,172.87565837728667</t>
+          <t>-40.83311640123577,172.87565869867765</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -35276,7 +35272,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-40.83293277005009,172.87566444704822</t>
+          <t>-40.83291827048098,172.87566490093974</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -35365,7 +35361,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-40.832837397107184,172.8756674325793</t>
+          <t>-40.832886569559534,172.8756658932981</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -35462,7 +35458,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-40.832709332586305,172.8756714414654</t>
+          <t>-40.83267907261469,172.87567238871043</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -35547,7 +35543,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-40.83295996799952,172.87566359564866</t>
+          <t>-40.83295384395794,172.8756637873546</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -35644,7 +35640,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-40.83297266637984,172.8756631981407</t>
+          <t>-40.832998063140366,172.87566240312427</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -35741,7 +35737,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-40.832903770911834,172.87566535483106</t>
+          <t>-40.8329516825315,172.8756638550155</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -35838,7 +35834,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-40.83272653393914,172.87567090300135</t>
+          <t>-40.83269240141172,172.87567197147166</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -35923,7 +35919,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-40.832975458222315,172.8756631107453</t>
+          <t>-40.833023730079084,172.87566159964956</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -36020,7 +36016,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-40.8329241243443,172.87566471769165</t>
+          <t>-40.83291863071872,172.87566488966294</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -36117,7 +36113,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-40.83286954832608,172.8756664261265</t>
+          <t>-40.832923583987686,172.87566473460686</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -36214,7 +36210,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-40.8328255092615,172.8756678047129</t>
+          <t>-40.83287279046581,172.87566632463538</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -36311,7 +36307,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-40.83291196632048,172.8756650982838</t>
+          <t>-40.832902329960845,172.87566539993824</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -36396,7 +36392,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-40.832997342664896,172.87566242567792</t>
+          <t>-40.83301697562154,172.87566181109034</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -36485,7 +36481,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-40.83283631639394,172.87566746640965</t>
+          <t>-40.832881346112245,172.8756660568116</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -36582,7 +36578,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-40.832905482041106,172.87566530126622</t>
+          <t>-40.83294952110505,172.8756639226764</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -36712,7 +36708,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-40.83269663420538,172.8756718389701</t>
+          <t>-40.832678262079725,172.87567241408306</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -36797,7 +36793,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-40.83288287712267,172.87566600888525</t>
+          <t>-40.83292790684059,172.87566459928513</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -36894,7 +36890,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-40.833103882974655,172.875659090549</t>
+          <t>-40.83310064083508,172.8756591920408</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -36947,7 +36943,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-40.83304867654222,172.87566081872794</t>
+          <t>-40.83304579464034,172.87566090894273</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -37040,7 +37036,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-40.83301787621589,172.87566178289825</t>
+          <t>-40.83306227551665,172.8756603930267</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -37137,7 +37133,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-40.832767240805325,172.87566962872916</t>
+          <t>-40.83273121702996,172.87567075640374</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -37222,7 +37218,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-40.83303129507153,172.87566136283584</t>
+          <t>-40.83307893651178,172.87565987147198</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -37412,7 +37408,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-40.83320015650721,172.87565607680077</t>
+          <t>-40.83319151080183,172.87565634744644</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -37501,7 +37497,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-40.83297446756853,172.87566314175658</t>
+          <t>-40.83296645227883,172.8756633926659</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -37598,7 +37594,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-40.832841449781846,172.87566730571555</t>
+          <t>-40.832833434491945,172.87566755662382</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -37687,7 +37683,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-40.832880985874496,172.8756660680884</t>
+          <t>-40.83293087880197,172.87566450625147</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -37784,7 +37780,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-40.83264466990866,172.87567346563668</t>
+          <t>-40.83261639124437,172.87567435085793</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -37873,7 +37869,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-40.832810109097714,172.8756682867948</t>
+          <t>-40.83286639624582,172.87566652479836</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -38011,7 +38007,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-40.832921962917844,172.87566478535248</t>
+          <t>-40.83296888388356,172.87566331654733</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -38193,7 +38189,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-40.83296762305149,172.87566335601622</t>
+          <t>-40.832983383452564,172.8756628626551</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -38379,7 +38375,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-40.83283307425421,172.87566756790062</t>
+          <t>-40.83287810397255,172.87566615830272</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -38476,7 +38472,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-40.832858651134266,172.87566676724924</t>
+          <t>-40.83290530192224,172.87566530690464</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -38573,7 +38569,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-40.83287161969312,172.87566636128494</t>
+          <t>-40.832917279827186,172.87566493195095</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -38662,7 +38658,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-40.83296555168448,172.87566342085796</t>
+          <t>-40.83298482440351,172.8756628175478</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -38751,7 +38747,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-40.83318034343237,172.8756566970303</t>
+          <t>-40.83314846239359,172.87565769503527</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -38832,7 +38828,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-40.83273283809985,172.87567070565842</t>
+          <t>-40.83270095705846,172.8756717036494</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -38921,7 +38917,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-40.8328055160664,172.87566843057354</t>
+          <t>-40.832861172798495,172.87566668831178</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -39018,7 +39014,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-40.83292727642455,172.87566461901957</t>
+          <t>-40.83296969441849,172.8756632911745</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -39115,7 +39111,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-40.83291178620161,172.8756651039222</t>
+          <t>-40.832906292576034,172.87566527589345</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -39200,7 +39196,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-40.83286747695906,172.875666490968</t>
+          <t>-40.832846222932005,172.87566715629822</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -39289,7 +39285,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-40.8329816723233,172.87566291622005</t>
+          <t>-40.83297752958931,172.87566304590356</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -39415,7 +39411,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-40.83283424502687,172.8756675312511</t>
+          <t>-40.83288891110489,172.87566581999894</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -39512,7 +39508,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-40.83286666642412,172.87566651634077</t>
+          <t>-40.832918450599855,172.87566489530133</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -39593,7 +39589,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-40.83297743952987,172.87566304872274</t>
+          <t>-40.832993560168646,172.87566254408466</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -39690,7 +39686,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-40.83280515582865,172.8756684418503</t>
+          <t>-40.83284829429905,172.87566709145676</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -39787,7 +39783,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-40.83282532914261,172.87566781035127</t>
+          <t>-40.832869998623266,172.8756664120305</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -39933,7 +39929,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-40.83296266978257,172.87566351107253</t>
+          <t>-40.832990318029005,172.87566264557614</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -40030,7 +40026,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-40.83295717615704,172.87566368304402</t>
+          <t>-40.83294943104561,172.8756639254956</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -40192,7 +40188,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-40.832841179603534,172.87566731417317</t>
+          <t>-40.8328907122936,172.87566576361496</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -40289,7 +40285,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-40.83284739370467,172.8756671196487</t>
+          <t>-40.83290881424023,172.87566519695582</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -40455,7 +40451,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-40.832916649411146,172.87566495168537</t>
+          <t>-40.83295654574099,172.87566370277844</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -40552,7 +40548,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-40.83302778275361,172.87566147278508</t>
+          <t>-40.83301751597814,172.87566179417507</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -40645,7 +40641,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-40.832705820268174,172.87567155141355</t>
+          <t>-40.8326814141601,172.87567231541175</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -40860,7 +40856,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-40.83260882625135,172.87567458766858</t>
+          <t>-40.83258306925123,172.87567539395204</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -40925,7 +40921,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-40.832816863555514,172.87566807535538</t>
+          <t>-40.83286189327398,172.87566666575822</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -41022,7 +41018,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-40.832855769232296,172.87566685746353</t>
+          <t>-40.832889541520935,172.87566580026456</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -41192,7 +41188,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-40.83292124244236,172.8756648079061</t>
+          <t>-40.83290962477515,172.87566517158302</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -41285,7 +41281,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-40.83321924910655,172.87565547912465</t>
+          <t>-40.833238882062396,172.8756548645328</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -41382,7 +41378,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-40.83288530872744,172.87566593276688</t>
+          <t>-40.83292808695945,172.87566459364675</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -41479,7 +41475,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-40.83285630958891,172.87566684054838</t>
+          <t>-40.83290935459685,172.87566518004064</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -41576,7 +41572,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-40.832977349470426,172.87566305154198</t>
+          <t>-40.83297122542888,172.875663243248</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -41766,7 +41762,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-40.83299374028751,172.87566253844625</t>
+          <t>-40.83300238599321,172.87566226780226</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -41863,7 +41859,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-40.83302787281304,172.87566146996585</t>
+          <t>-40.833035617924345,172.87566122751372</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -41960,7 +41956,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-40.83274229434091,172.87567040964393</t>
+          <t>-40.83271365543938,172.87567130614462</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -41997,7 +41993,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-40.83295438431455,172.8756637704394</t>
+          <t>-40.83294276664741,172.87566413411668</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -42066,7 +42062,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-40.83294123563702,172.87566418204312</t>
+          <t>-40.83295762645421,172.87566366894802</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -42163,7 +42159,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-40.832794618874445,172.87566877169564</t>
+          <t>-40.83283415496745,172.8756675340703</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -42232,7 +42228,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-40.83283271401645,172.87566757917742</t>
+          <t>-40.83288413795477,172.87566596941647</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -42418,7 +42414,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-40.833051468384646,172.87566073133232</t>
+          <t>-40.83305723218838,172.87566055090267</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -42515,7 +42511,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-40.832893684255,172.8756656705814</t>
+          <t>-40.83288080575563,172.8756660737268</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -42612,7 +42608,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-40.83281407171296,172.87566816275034</t>
+          <t>-40.83286549565145,172.87566655299034</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -42709,7 +42705,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-40.832768771815786,172.87566958080296</t>
+          <t>-40.83274139374653,172.8756704378358</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -42790,7 +42786,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-40.832997522783764,172.8756624200395</t>
+          <t>-40.832997162546015,172.87566243131636</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -42968,7 +42964,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-40.83280803773066,172.8756683516362</t>
+          <t>-40.83277840817565,172.87566927914978</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -43029,7 +43025,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-40.83297230614209,172.87566320941752</t>
+          <t>-40.832957806573084,172.8756636633096</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -43118,7 +43114,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-40.83299022796958,172.87566264839538</t>
+          <t>-40.8329725763204,172.8756632009599</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -43187,7 +43183,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-40.83279623994432,172.87566872095022</t>
+          <t>-40.83283487544295,172.87566751151675</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -43284,7 +43280,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-40.83280317452103,172.87566850387253</t>
+          <t>-40.832846312991435,172.87566715347904</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -43381,7 +43377,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-40.83284676328863,172.87566713938307</t>
+          <t>-40.83282839116348,172.8756677144987</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -43462,7 +43458,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-40.832893324017256,172.8756656818582</t>
+          <t>-40.832865945948626,172.87566653889436</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -43531,7 +43527,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-40.83271914906515,172.87567113417444</t>
+          <t>-40.83268888909358,172.87567208141974</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -43598,11 +43594,7 @@
           <t>2010-02-13 22:04:54+00:00</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>-40.833009500688526,172.87566204508474</t>
-        </is>
-      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
           <t>-40.83303259416792,172.87471221437053</t>
@@ -43667,7 +43659,11 @@
           <t>2010-02-21 22:03:56+00:00</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr"/>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>-40.832595587513545,172.8756750020871</t>
+        </is>
+      </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
@@ -43726,7 +43722,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-40.83305768248557,172.8756605368066</t>
+          <t>-40.83304093143093,172.87566106118018</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -43811,7 +43807,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-40.83295195270981,172.8756638465579</t>
+          <t>-40.83297320673644,172.87566318122543</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -43985,7 +43981,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-40.832767240805325,172.87566962872916</t>
+          <t>-40.83283217365983,172.87566759609257</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -44078,7 +44074,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-40.832907913645876,172.87566522514783</t>
+          <t>-40.832925565295255,172.8756646725844</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -44175,7 +44171,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-40.83296005805896,172.87566359282948</t>
+          <t>-40.833000945042265,172.87566231290958</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -44272,7 +44268,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-40.833032015547,172.87566134028216</t>
+          <t>-40.83307443354014,172.87566001243275</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -44369,7 +44365,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-40.832884498192506,172.87566595813968</t>
+          <t>-40.83285784059933,172.87566679262204</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -44446,7 +44442,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-40.832893324017256,172.8756656818582</t>
+          <t>-40.8328740512979,172.87566628516663</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -44604,7 +44600,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-40.8330929857833,172.87565943167428</t>
+          <t>-40.83308560090982,172.87565966285</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -44701,7 +44697,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-40.833057772545,172.8756605339874</t>
+          <t>-40.83306452700248,172.87566032254634</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -44798,7 +44794,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-40.83296852364584,172.87566332782416</t>
+          <t>-40.83299968421017,172.87566235237853</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -44895,7 +44891,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-40.83294645908426,172.87566401852933</t>
+          <t>-40.83299022796958,172.87566264839538</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -44992,7 +44988,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-40.83290917447797,172.87566518567903</t>
+          <t>-40.83296257972313,172.8756635138917</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -45053,7 +45049,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-40.83273950249831,172.8756704970387</t>
+          <t>-40.83271662740086,172.8756712131116</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -45122,7 +45118,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-40.83284442174327,172.87566721268215</t>
+          <t>-40.8328335245514,172.87566755380465</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -45215,7 +45211,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-40.83287648290268,172.8756662090483</t>
+          <t>-40.832920251788565,172.8756648389173</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -45260,7 +45256,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-40.83295447437399,172.87566376762015</t>
+          <t>-40.83294420759838,172.8756640890094</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -45337,7 +45333,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-40.83317403927217,172.87565689437602</t>
+          <t>-40.83313864591552,172.87565800233037</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -45426,7 +45422,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-40.83284433168382,172.87566721550132</t>
+          <t>-40.832895755622026,172.8756656057398</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -45616,7 +45612,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-40.83306533753738,172.87566029717343</t>
+          <t>-40.83308010728441,172.87565983482216</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -45713,7 +45709,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-40.83303750917245,172.87566116831024</t>
+          <t>-40.83304525428374,172.875660925858</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -45810,7 +45806,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-40.83333047250226,172.87565199737222</t>
+          <t>-40.83330309443584,172.8756528544201</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -45907,7 +45903,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-40.8329062025166,172.87566527871263</t>
+          <t>-40.83296185924765,172.87566353644536</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -46004,7 +46000,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-40.8327313070894,172.87567075358456</t>
+          <t>-40.832798221251956,172.87566865892805</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -46101,7 +46097,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-40.83284054918747,172.8756673339075</t>
+          <t>-40.832879454864084,172.87566611601474</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -46162,7 +46158,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-40.83291484822243,172.87566500806938</t>
+          <t>-40.83294636902483,172.87566402134854</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -46259,7 +46255,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-40.83293898415114,172.87566425252322</t>
+          <t>-40.83297014471567,172.87566327707844</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -46356,7 +46352,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-40.83266034025122,172.87567297509975</t>
+          <t>-40.83262917968492,172.87567395053506</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -46441,7 +46437,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-40.83268222469508,172.8756722900391</t>
+          <t>-40.83265232496107,172.8756732260066</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -46526,7 +46522,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-40.832702938366126,172.87567164162738</t>
+          <t>-40.832680423506275,172.8756723464227</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -46615,7 +46611,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-40.83279173697245,172.87566886190973</t>
+          <t>-40.832770843182864,172.87566951596165</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -46708,7 +46704,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-40.83303732905358,172.87566117394866</t>
+          <t>-40.83304372327338,172.87566097378462</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -46805,7 +46801,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-40.8329074633487,172.87566523924383</t>
+          <t>-40.832945378371036,172.87566405235978</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -46931,7 +46927,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-40.832771113361176,172.87566950750409</t>
+          <t>-40.83282839116348,172.8756677144987</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -47028,7 +47024,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-40.83289881764285,172.87566550988703</t>
+          <t>-40.83293322034728,172.87566443295222</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -47117,7 +47113,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-40.833042462441306,172.8756610132536</t>
+          <t>-40.83305471052425,172.87566062984064</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -47158,7 +47154,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-40.83300526789511,172.87566217758757</t>
+          <t>-40.833019137047955,172.8756617434293</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -47255,7 +47251,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-40.83284009889029,172.87566734800347</t>
+          <t>-40.832880625636754,172.8756660793652</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -47352,7 +47348,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-40.83272536316643,172.87567093965072</t>
+          <t>-40.8327861532873,172.87566903669952</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -47449,7 +47445,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-40.833019046988525,172.8756617462485</t>
+          <t>-40.83300364682529,172.8756622283333</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -47530,7 +47526,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-40.832779939186096,172.87566923122358</t>
+          <t>-40.83274652713452,172.8756702771422</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -47603,7 +47599,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-40.83290431126845,172.87566533791585</t>
+          <t>-40.832962219485395,172.87566352516853</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -47700,7 +47696,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-40.83298095184782,172.8756629387737</t>
+          <t>-40.83301409371965,172.87566190130505</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -47797,7 +47793,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-40.83308857287111,172.8756595698159</t>
+          <t>-40.83307182181657,172.87566009418995</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -47959,7 +47955,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-40.83302021776116,172.87566170959877</t>
+          <t>-40.8330427326196,172.87566100479594</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -48056,7 +48052,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-40.83300112516114,172.87566230727117</t>
+          <t>-40.833001485398874,172.87566229599435</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -48153,7 +48149,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-40.832946639203136,172.87566401289092</t>
+          <t>-40.832982032561034,172.87566290494323</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -48250,7 +48246,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-40.83263998681776,172.8756736122339</t>
+          <t>-40.83261332922339,172.87567444670987</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -48335,7 +48331,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-40.832877563615924,172.87566617521793</t>
+          <t>-40.83294510819273,172.87566406081737</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -48432,7 +48428,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-40.83285306744919,172.8756669420394</t>
+          <t>-40.83283316431365,172.87566756508141</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -48525,7 +48521,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-40.832831092946584,172.87566762992287</t>
+          <t>-40.832809838919395,172.87566829525235</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -48610,7 +48606,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-40.83297743952987,172.87566304872274</t>
+          <t>-40.83298932737523,172.8756626765874</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -48707,7 +48703,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-40.83296293996088,172.8756635026149</t>
+          <t>-40.8329819425016,172.87566290776243</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -48804,7 +48800,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-40.83303264596302,172.87566132054766</t>
+          <t>-40.83307056098451,172.87566013365895</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -48901,7 +48897,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-40.8328163231989,172.87566809227053</t>
+          <t>-40.83280155345115,172.87566855461796</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -48990,7 +48986,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-40.832780839780455,172.8756692030317</t>
+          <t>-40.8328393784148,172.87566737055704</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -49087,7 +49083,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-40.8330883026928,172.8756595782735</t>
+          <t>-40.83306227551665,172.8756603930267</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -49164,7 +49160,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-40.83273238780266,172.8756707197543</t>
+          <t>-40.832789665605375,172.8756689267511</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -49308,7 +49304,11 @@
           <t>2014-07-02 22:10:31+00:00</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr"/>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>-40.83314116757961,172.8756579233922</t>
+        </is>
+      </c>
       <c r="C197" t="inlineStr">
         <is>
           <t>-40.83314805032862,172.8747085984887</t>
@@ -49383,7 +49383,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-40.83276345830894,172.87566974713505</t>
+          <t>-40.83282812098516,172.87566772295625</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -49480,7 +49480,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-40.83284919489341,172.87566706326479</t>
+          <t>-40.83289197312571,172.87566572414616</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -49577,7 +49577,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-40.833074253421266,172.87566001807116</t>
+          <t>-40.83308452019662,172.8756596966806</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -49674,7 +49674,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-40.83305092802805,172.8756607482476</t>
+          <t>-40.83306569777512,172.87566028589657</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -49771,7 +49771,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-40.83297527810344,172.87566311638372</t>
+          <t>-40.833010041045114,172.8756620281695</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -49868,7 +49868,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-40.83274427564856,172.87567034762185</t>
+          <t>-40.8327236520371,172.87567099321524</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -49953,7 +49953,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-40.83293907421058,172.87566424970402</t>
+          <t>-40.83298122202612,172.87566293031608</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -50034,7 +50034,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-40.832784532217424,172.87566908744492</t>
+          <t>-40.832757154148254,172.87566994447818</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -50115,7 +50115,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-40.83296384055522,172.87566347442285</t>
+          <t>-40.83302012770172,172.87566171241798</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -50212,7 +50212,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-40.832886119262355,172.8756659073941</t>
+          <t>-40.83286099267961,172.87566669395017</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -50301,7 +50301,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-40.83301175217436,172.8756619746045</t>
+          <t>-40.83303777935075,172.87566115985263</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -50475,7 +50475,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-40.832708161813585,172.87567147811478</t>
+          <t>-40.83267474976159,172.87567252403105</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -50552,7 +50552,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-40.832685286716014,172.87567219418696</t>
+          <t>-40.83266115078618,172.87567294972715</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -50637,7 +50637,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-40.83280317452103,172.87566850387253</t>
+          <t>-40.83287297058467,172.875666318997</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -50734,7 +50734,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-40.832902329960845,172.87566539993824</t>
+          <t>-40.83288395783589,172.87566597505486</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -50819,7 +50819,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-40.83295177259093,172.8756638521963</t>
+          <t>-40.83299680230828,172.87566244259318</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -50916,7 +50916,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-40.83299599177337,172.87566246796607</t>
+          <t>-40.8330194972857,172.87566173215245</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -51013,7 +51013,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-40.83303048453663,172.87566138820873</t>
+          <t>-40.833046875353546,172.87566087511217</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -51147,7 +51147,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-40.83284766388299,172.87566711119112</t>
+          <t>-40.83289008187755,172.87566578334938</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -51398,7 +51398,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-40.833388560833534,172.8756501789623</t>
+          <t>-40.833351546408565,172.87565133767043</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -51467,7 +51467,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-40.833251130144895,172.8756544811175</t>
+          <t>-40.83322285148377,172.87565536635552</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -51532,7 +51532,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-40.83307308264863,172.87566005472095</t>
+          <t>-40.833049937374284,172.87566077925894</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -51609,7 +51609,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-40.83300220587435,172.87566227344067</t>
+          <t>-40.83302345990077,172.8756616081072</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -51706,7 +51706,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-40.83298644547334,172.87566276680207</t>
+          <t>-40.8330018456366,172.87566228471752</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -51803,7 +51803,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-40.832977349470426,172.87566305154198</t>
+          <t>-40.83301148199607,172.87566198306212</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -51900,7 +51900,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-40.832739952795514,172.87567048294275</t>
+          <t>-40.832712574726116,172.87567133997482</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -52050,7 +52050,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-40.83277255431217,172.87566946239707</t>
+          <t>-40.832744906064626,172.87567032788755</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -52127,7 +52127,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-40.83301391360077,172.87566190694346</t>
+          <t>-40.83304093143093,172.87566106118018</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -52224,7 +52224,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-40.83304768588845,172.87566084973926</t>
+          <t>-40.83304318291677,172.87566099069988</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -52374,7 +52374,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-40.832932499871795,172.8756644555058</t>
+          <t>-40.83297014471567,172.87566327707844</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -52597,7 +52597,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-40.83283793746381,172.87566741566414</t>
+          <t>-40.83290710311095,172.87566525052063</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -52694,7 +52694,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-40.8328969263947,172.87566556909022</t>
+          <t>-40.83293934438889,172.8756642412464</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -52791,7 +52791,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-40.83286522547313,172.87566656144793</t>
+          <t>-40.83284460186213,172.87566720704376</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -52880,7 +52880,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-40.83298842678089,172.8756627047795</t>
+          <t>-40.83301130187719,172.87566198870053</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -52977,7 +52977,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-40.83302309966305,172.87566161938403</t>
+          <t>-40.83303949048,172.87566110628757</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -53074,7 +53074,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-40.832887560213344,172.87566586228692</t>
+          <t>-40.83289881764285,172.87566550988703</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -53171,7 +53171,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-40.83265817882467,172.87567304276</t>
+          <t>-40.83263152123037,172.87567387723647</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -53232,7 +53232,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-40.832669076016884,172.87567270163936</t>
+          <t>-40.832730496554454,172.87567077895721</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -53325,7 +53325,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-40.833018596691346,172.87566176034454</t>
+          <t>-40.833012472649834,172.87566195205082</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -53394,7 +53394,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-40.83302913364513,172.8756614304969</t>
+          <t>-40.833048406363915,172.87566082718556</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -53491,7 +53491,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-40.832974647687394,172.87566313611816</t>
+          <t>-40.832999414031875,172.87566236083612</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -53588,7 +53588,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-40.83292529511695,172.875664681042</t>
+          <t>-40.83295870716743,172.87566363511755</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -53685,7 +53685,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-40.832915208460165,172.87566499679258</t>
+          <t>-40.83288882104545,172.87566582281815</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -53766,7 +53766,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-40.83303931036112,172.875661111926</t>
+          <t>-40.83306056438743,172.87566044659175</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -53863,7 +53863,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-40.83311793224611,172.87565865075095</t>
+          <t>-40.833146210907785,172.8756577655158</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -53960,7 +53960,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-40.832975908519494,172.87566309664928</t>
+          <t>-40.833024810792296,172.87566156581903</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -54057,7 +54057,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-40.83313648448915,172.8756580699917</t>
+          <t>-40.833107845589694,172.8756589665034</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -54146,7 +54146,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-40.83299220927714,172.87566258637278</t>
+          <t>-40.833021478593245,172.87566167012983</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -54239,7 +54239,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-40.833060474327986,172.875660449411</t>
+          <t>-40.83306272581382,172.87566037893063</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -54332,7 +54332,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-40.83296131889104,172.8756635533606</t>
+          <t>-40.83299319993092,172.8756625553615</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -54405,7 +54405,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-40.83277741752183,172.87566931016087</t>
+          <t>-40.83284334103002,172.87566724651248</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -54494,7 +54494,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-40.832934571238816,172.87566439066416</t>
+          <t>-40.832916919589444,172.87566494322775</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -54587,7 +54587,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-40.83298680571106,172.87566275552524</t>
+          <t>-40.83300896033191,172.87566206199998</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -54773,7 +54773,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-40.83282803092571,172.87566772577546</t>
+          <t>-40.8328698185044,172.8756664176689</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -54870,7 +54870,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>-40.832723381858784,172.87567100167277</t>
+          <t>-40.83278516263349,172.87566906771062</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -54907,7 +54907,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-40.83282875140123,172.87566770322192</t>
+          <t>-40.83287216004974,172.87566634436976</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -55004,7 +55004,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-40.833014634076264,172.87566188438979</t>
+          <t>-40.833034267032836,172.87566126980187</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -55085,7 +55085,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-40.83337027876966,172.87565075126844</t>
+          <t>-40.83334163987143,172.8756516477867</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -55138,7 +55138,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-40.83295906740517,172.87566362384072</t>
+          <t>-40.83293304022841,172.8756644385906</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -55207,7 +55207,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-40.83295420419568,172.87566377607777</t>
+          <t>-40.83299121862335,172.87566261738408</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -55300,7 +55300,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-40.832932499871795,172.8756644555058</t>
+          <t>-40.83291484822243,172.87566500806938</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -55385,7 +55385,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>-40.83303471733,172.8756612557058</t>
+          <t>-40.83305335963276,172.87566067212884</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -55442,7 +55442,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-40.83302129847437,172.87566167576824</t>
+          <t>-40.83304795606674,172.87566084128161</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -55531,7 +55531,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-40.832834605264644,172.87566751997434</t>
+          <t>-40.832801193213406,172.87566856589473</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -55624,7 +55624,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-40.83305444034596,172.87566063829829</t>
+          <t>-40.8330984794087,172.87565925970202</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -55721,7 +55721,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>-40.833029674001715,172.87566141358164</t>
+          <t>-40.833038319707356,172.87566114293733</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -55818,7 +55818,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-40.83292709630566,172.875664624658</t>
+          <t>-40.83296951429962,172.87566329681292</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -55915,7 +55915,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-40.833052368979,172.87566070314017</t>
+          <t>-40.833027242397,172.87566148970035</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -55988,7 +55988,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-40.83274454582687,172.8756703391643</t>
+          <t>-40.83280758743345,172.87566836573214</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -56085,7 +56085,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-40.83288927134263,172.87566580872215</t>
+          <t>-40.83286738689961,172.8756664937872</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -56178,7 +56178,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-40.832869188088345,172.87566643740325</t>
+          <t>-40.83284766388299,172.87566711119112</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -56263,7 +56263,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-40.83289701645414,172.875665566271</t>
+          <t>-40.83293304022841,172.8756644385906</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -56360,7 +56360,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-40.832984734344066,172.875662820367</t>
+          <t>-40.83300598837058,172.8756621550339</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -56567,7 +56567,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-40.83288008528014,172.87566609628038</t>
+          <t>-40.83291935119421,172.87566486710932</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -56664,7 +56664,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>-40.83279578964715,172.87566873504616</t>
+          <t>-40.83281731385269,172.87566806125943</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -56761,7 +56761,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-40.83308244882966,172.87565976152257</t>
+          <t>-40.83308821263337,172.87565958109272</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -56858,7 +56858,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>-40.83295078193715,172.87566388320755</t>
+          <t>-40.832978790421386,172.87566300643465</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -56955,7 +56955,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-40.832838567879854,172.87566739592978</t>
+          <t>-40.83290124924762,172.87566543376866</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -57052,7 +57052,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-40.83285468851905,172.8756668912939</t>
+          <t>-40.83282866134179,172.8756677060411</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -57125,7 +57125,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-40.83295816681082,172.87566365203278</t>
+          <t>-40.83299229933656,172.87566258355358</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -57222,7 +57222,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-40.833055791237456,172.8756605960101</t>
+          <t>-40.83304552446205,172.87566091740035</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -57315,7 +57315,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>-40.833018056334744,172.8756617772598</t>
+          <t>-40.83306695860718,172.87566024642757</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -57412,7 +57412,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-40.83283127306546,172.8756676242845</t>
+          <t>-40.832896566156954,172.875665580367</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -57509,7 +57509,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>-40.832823708072745,172.87566786109673</t>
+          <t>-40.83279957214352,172.87566861664018</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -57602,7 +57602,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-40.83284487204044,172.87566719858617</t>
+          <t>-40.83282109634907,172.8756679428533</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -57695,7 +57695,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-40.832988967137496,172.87566268786426</t>
+          <t>-40.833003736884734,172.87566222551413</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -57792,7 +57792,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-40.8328428006734,172.87566726342763</t>
+          <t>-40.832887470153906,172.8756658651061</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -57889,7 +57889,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-40.83269447277884,172.8756719066305</t>
+          <t>-40.832760126109704,172.875669851445</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -57986,7 +57986,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-40.83303795946962,172.87566115421419</t>
+          <t>-40.83301643526494,172.87566182800558</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -58079,7 +58079,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>-40.83276841157803,172.87566959207973</t>
+          <t>-40.832822807478365,172.87566788928865</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -58176,7 +58176,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>-40.83289467490879,172.8756656395702</t>
+          <t>-40.83292655594906,172.8756646415732</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -58273,7 +58273,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>-40.832988516840324,172.8756627019603</t>
+          <t>-40.833008149796996,172.87566208737286</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -58370,7 +58370,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>-40.83285558911342,172.87566686310194</t>
+          <t>-40.83290124924762,172.87566543376866</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -58467,7 +58467,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>-40.83276652032983,172.87566965128266</t>
+          <t>-40.83282568938036,172.8756677990745</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -58564,7 +58564,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>-40.832889451461504,172.87566580308373</t>
+          <t>-40.83292511499808,172.8756646866804</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -58661,7 +58661,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-40.832979330777995,172.8756629895194</t>
+          <t>-40.83299833331866,172.87566239466665</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -58758,7 +58758,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>-40.83304354315452,172.87566097942303</t>
+          <t>-40.83305516082142,172.87566061574458</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -58855,7 +58855,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-40.83296771311091,172.875663353197</t>
+          <t>-40.832977349470426,172.87566305154198</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -58952,7 +58952,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>-40.8329915788611,172.87566260610726</t>
+          <t>-40.833019857523425,172.8756617208756</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -59017,7 +59017,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>-40.83286207339285,172.8756666601198</t>
+          <t>-40.832905482041106,172.87566530126622</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -59102,7 +59102,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>-40.832995361357334,172.8756624877005</t>
+          <t>-40.8330258915055,172.8756615319885</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -59199,7 +59199,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>-40.83307227211374,172.8756600800939</t>
+          <t>-40.83306227551665,172.8756603930267</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -59292,7 +59292,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-40.832767781161955,172.87566961181406</t>
+          <t>-40.83273499952638,172.87567063799796</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -59369,7 +59369,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>-40.83320519983534,172.87565591892408</t>
+          <t>-40.83318079372952,172.8756566829342</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -59438,7 +59438,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>-40.83292169273954,172.87566479381007</t>
+          <t>-40.832982843095955,172.87566287957037</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -59535,7 +59535,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>-40.8329140376875,172.87566503344217</t>
+          <t>-40.83294907080788,172.8756639367724</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -59632,7 +59632,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-40.83282776074742,172.87566773423305</t>
+          <t>-40.832809748859965,172.87566829807153</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -59725,7 +59725,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>-40.83296050835613,172.87566357873342</t>
+          <t>-40.83297852024309,172.8756630148923</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -59822,7 +59822,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>-40.83262962998212,172.87567393643917</t>
+          <t>-40.83260423321987,172.87567473144642</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -59895,7 +59895,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>-40.83282226712175,172.87566790620383</t>
+          <t>-40.83286828749397,172.87566646559523</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -59990,11 +59990,7 @@
           <t>2020-04-29 21:47:27+00:00</t>
         </is>
       </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>-40.8323767430676,172.87568185265374</t>
-        </is>
-      </c>
+      <c r="B319" t="inlineStr"/>
       <c r="C319" t="inlineStr">
         <is>
           <t>-40.8325590617765,172.87472704442663</t>
@@ -60065,7 +60061,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>-40.832686547548164,172.87567215471844</t>
+          <t>-40.83275220087914,172.87567009953347</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -60162,7 +60158,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>-40.832894224611614,172.8756656536662</t>
+          <t>-40.8329216026801,172.87566479662928</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -60259,7 +60255,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>-40.83286621612694,172.87566653043677</t>
+          <t>-40.83289449478991,172.8756656452086</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -60352,7 +60348,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>-40.832815962961135,172.8756681035473</t>
+          <t>-40.832863244165544,172.87566662347024</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -60449,7 +60445,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>-40.832657728527465,172.8756730568559</t>
+          <t>-40.832629089625485,172.8756739533542</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -60530,7 +60526,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>-40.8327305866139,172.87567077613804</t>
+          <t>-40.832702938366126,172.87567164162738</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -60611,7 +60607,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>-40.832930788742516,172.87566450907067</t>
+          <t>-40.83294303682573,172.87566412565909</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -60801,7 +60797,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>-40.83297581846005,172.87566309946848</t>
+          <t>-40.833003466706415,172.87566223397172</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -60898,7 +60894,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>-40.832896836335266,172.87566557190942</t>
+          <t>-40.83296248966369,172.87566351671094</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -60995,7 +60991,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>-40.833000314626226,172.87566233264405</t>
+          <t>-40.83302769269417,172.8756614756043</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -61092,7 +61088,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>-40.83305480058368,172.87566062702143</t>
+          <t>-40.83306416676475,172.87566033382322</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -61189,7 +61185,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>-40.83292826707832,172.87566458800833</t>
+          <t>-40.83296753299206,172.87566335883542</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -61286,7 +61282,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>-40.832832353778706,172.87566759045419</t>
+          <t>-40.832884498192506,172.87566595813968</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -61383,7 +61379,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>-40.83285549905398,172.87566686592112</t>
+          <t>-40.832834605264644,172.87566751997434</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -61476,7 +61472,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>-40.833005087776236,172.87566218322598</t>
+          <t>-40.83299959415075,172.8756623551977</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -61549,7 +61545,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>-40.83297212602322,172.87566321505594</t>
+          <t>-40.833001395339444,172.87566229881355</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -61646,7 +61642,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>-40.832957986691945,172.8756636576712</t>
+          <t>-40.832982122620464,172.87566290212402</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -61743,7 +61739,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>-40.83289764687018,172.87566554653662</t>
+          <t>-40.83292979808874,172.87566454008189</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -61840,7 +61836,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>-40.83333182339369,172.87565195508367</t>
+          <t>-40.83330318449527,172.87565285160088</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -61909,7 +61905,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>-40.83332912161083,172.8756520396608</t>
+          <t>-40.83330210378212,172.8756528854317</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -61994,7 +61990,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>-40.83303498750831,172.8756612472482</t>
+          <t>-40.833051378325216,172.87566073415152</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -62091,7 +62087,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>-40.83296879382413,172.87566331936657</t>
+          <t>-40.83295429425512,172.87566377325857</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -62180,7 +62176,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>-40.833020307820604,172.87566170677957</t>
+          <t>-40.833020938236636,172.87566168704507</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -62277,7 +62273,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>-40.8330118422338,172.8756619717853</t>
+          <t>-40.83303759923189,172.87566116549104</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -62374,7 +62370,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>-40.832841179603534,172.87566731417317</t>
+          <t>-40.83289710651356,172.87566556345183</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -62471,7 +62467,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>-40.8329216026801,172.87566479662928</t>
+          <t>-40.83296825346752,172.87566333628178</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -62568,7 +62564,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>-40.83304570458091,172.87566091176194</t>
+          <t>-40.83308749215791,172.87565960364648</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -62665,7 +62661,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>-40.83285117620102,172.8756670012425</t>
+          <t>-40.83283505556183,172.87566750587834</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -62754,7 +62750,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>-40.832942496469116,172.8756641425743</t>
+          <t>-40.832910975666685,172.87566512929502</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -62839,7 +62835,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>-40.83303327637907,172.8756613008132</t>
+          <t>-40.83305191868183,172.87566071723626</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -62936,7 +62932,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>-40.83287089921763,172.87566638383854</t>
+          <t>-40.83291142596386,172.875665115199</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -63033,7 +63029,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>-40.8330227394253,172.87566163066086</t>
+          <t>-40.83304525428374,172.875660925858</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -63130,7 +63126,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>-40.83302850322907,172.87566145023138</t>
+          <t>-40.833070020627915,172.87566015057428</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -63227,7 +63223,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>-40.83307407330239,172.8756600237096</t>
+          <t>-40.83311135790755,172.8756588565539</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -63324,7 +63320,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>-40.83291736988663,172.87566492913174</t>
+          <t>-40.832963390258044,172.87566348851888</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -63421,7 +63417,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>-40.833236450457775,172.875654940652</t>
+          <t>-40.83321654732362,172.87565556370149</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -63498,7 +63494,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>-40.83298887707806,172.87566269068347</t>
+          <t>-40.83296798328923,172.8756633447394</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -63583,7 +63579,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>-40.83291610905452,172.87566496860057</t>
+          <t>-40.8329216026801,172.87566479662928</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -63676,7 +63672,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>-40.83299247945544,172.87566257791516</t>
+          <t>-40.83301760603758,172.87566179135587</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -63769,7 +63765,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>-40.833262927930235,172.87565411179824</t>
+          <t>-40.833246537113965,172.87565462489826</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -63838,7 +63834,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>-40.83280416517484,172.8756684728614</t>
+          <t>-40.83286234357117,172.87566665166221</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -63935,7 +63931,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>-40.83286612606751,172.87566653325598</t>
+          <t>-40.83290440132788,172.87566533509664</t>
         </is>
       </c>
       <c r="C362" t="inlineStr"/>
@@ -63996,7 +63992,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>-40.832852977389756,172.8756669448586</t>
+          <t>-40.83289026199641,172.87566577771096</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -64167,7 +64163,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>-40.83296798328923,172.8756633447394</t>
+          <t>-40.83299148880166,172.87566260892643</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -64264,7 +64260,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>-40.833051378325216,172.87566073415152</t>
+          <t>-40.83306614807227,172.87566027180048</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -64361,7 +64357,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>-40.833144139540856,172.8756578303579</t>
+          <t>-40.83313576401369,172.87565809254542</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -64507,7 +64503,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>-40.833054980702556,172.87566062138302</t>
+          <t>-40.833074613658994,172.8756600067943</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -64604,7 +64600,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>-40.83300841997531,172.87566207891524</t>
+          <t>-40.83303354655737,172.87566129235557</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -64701,7 +64697,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>-40.832914578044125,172.87566501652697</t>
+          <t>-40.832974737746824,172.87566313329896</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -64796,7 +64792,11 @@
           <t>2022-12-31 22:13:27+00:00</t>
         </is>
       </c>
-      <c r="B373" t="inlineStr"/>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>-40.833338667910276,172.87565174082158</t>
+        </is>
+      </c>
       <c r="C373" t="inlineStr"/>
       <c r="D373" t="inlineStr">
         <is>
@@ -64839,7 +64839,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>-40.832973386855315,172.87566317558702</t>
+          <t>-40.83301328318474,172.87566192667794</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -64936,7 +64936,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>-40.83291079554781,172.87566513493343</t>
+          <t>-40.83295069187771,172.87566388602676</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -65033,7 +65033,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>-40.83311315909621,172.87565880016953</t>
+          <t>-40.83311189826415,172.8756588396386</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -65130,7 +65130,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>-40.83303895012339,172.87566112320286</t>
+          <t>-40.83306272581382,172.87566037893063</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -65227,7 +65227,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>-40.832892153244586,172.87566571850778</t>
+          <t>-40.83287639284325,172.87566621186747</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -65312,7 +65312,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>-40.832905572100536,172.87566529844705</t>
+          <t>-40.832947359678606,172.87566399033727</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -65409,7 +65409,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>-40.83295402407681,172.87566378171618</t>
+          <t>-40.83293988474549,172.8756642243312</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -65490,7 +65490,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>-40.83285108614159,172.87566700406168</t>
+          <t>-40.83289611585977,172.87566559446302</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -65563,7 +65563,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>-40.8328194752792,172.8756679935988</t>
+          <t>-40.83288602920293,172.87566591021329</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -65660,7 +65660,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>-40.833003376646985,172.87566223679096</t>
+          <t>-40.832984734344066,172.875662820367</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -65745,7 +65745,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>-40.83269132069846,172.87567200530182</t>
+          <t>-40.83273184744603,172.87567073666946</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -65838,7 +65838,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>-40.833013463303615,172.87566192103952</t>
+          <t>-40.832990318029005,172.87566264557614</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -65923,7 +65923,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>-40.83299509117903,172.87566249615813</t>
+          <t>-40.83301373348193,172.8756619125819</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -66020,7 +66020,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>-40.83298320333368,172.87566286829352</t>
+          <t>-40.83300472753851,172.87566219450284</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -66117,7 +66117,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>-40.832773635025426,172.8756694285668</t>
+          <t>-40.83282767068798,172.87566773705223</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -66214,7 +66214,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>-40.833029493882854,172.87566141922005</t>
+          <t>-40.83303363661681,172.87566128953634</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -66311,7 +66311,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>-40.83301715574041,172.87566180545193</t>
+          <t>-40.83303129507153,172.87566136283584</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -66408,7 +66408,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>-40.83297428744966,172.875663147395</t>
+          <t>-40.83299193909883,172.87566259483043</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -66505,7 +66505,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>-40.833014634076264,172.87566188438979</t>
+          <t>-40.83302526108947,172.875661551723</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -66562,7 +66562,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>-40.83295591532494,172.8756637225129</t>
+          <t>-40.833020577998894,172.87566169832192</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -66659,7 +66659,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>-40.83306776914207,172.87566022105463</t>
+          <t>-40.83308452019662,172.8756596966806</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -66748,7 +66748,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>-40.833050657849746,172.87566075670523</t>
+          <t>-40.83307443354014,172.87566001243275</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -66837,7 +66837,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>-40.83281812438764,172.8756680358867</t>
+          <t>-40.83279299780457,172.87566882244107</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -66918,7 +66918,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>-40.83294357718234,172.87566410874385</t>
+          <t>-40.833001485398874,172.87566229599435</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -67015,7 +67015,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>-40.832883597598155,172.87566598633165</t>
+          <t>-40.832862703808914,172.87566664038542</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -67165,7 +67165,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>-40.83308929334656,172.87565954726213</t>
+          <t>-40.83310379291521,172.8756590933682</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -67238,7 +67238,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>-40.83302841316963,172.8756614530506</t>
+          <t>-40.83304678529411,172.87566087793138</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -67311,7 +67311,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>-40.83285126626046,172.8756669984233</t>
+          <t>-40.832836496512805,172.87566746077127</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -67404,7 +67404,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>-40.83296050835613,172.87566357873342</t>
+          <t>-40.83300589831114,172.8756621578531</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -67497,7 +67497,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>-40.83282298759726,172.87566788365027</t>
+          <t>-40.83279533934996,172.87566874914214</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -67578,7 +67578,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>-40.83291863071872,172.87566488966294</t>
+          <t>-40.83295465449286,172.87566376198174</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -67675,7 +67675,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>-40.832973386855315,172.87566317558702</t>
+          <t>-40.8329981531998,172.87566240030506</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -67772,7 +67772,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>-40.833002025755476,172.87566227907908</t>
+          <t>-40.83302264936587,172.8756616334801</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -67869,7 +67869,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>-40.83284874459621,172.8756670773608</t>
+          <t>-40.83289278366064,172.8756656987734</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -67966,7 +67966,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>-40.83288539878688,172.8756659299477</t>
+          <t>-40.83292268339332,172.87566476279886</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -68063,7 +68063,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>-40.83308695180132,172.87565962056175</t>
+          <t>-40.83310010047849,172.87565920895614</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -68160,7 +68160,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>-40.83296321013918,172.8756634941573</t>
+          <t>-40.83301049134229,172.8756620140734</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -68257,7 +68257,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>-40.83276282789286,172.87566976686938</t>
+          <t>-40.83273067667332,172.87567077331883</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -68322,7 +68322,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>-40.833142698589945,172.87565787546544</t>
+          <t>-40.83316647427992,172.8756571311908</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -68419,7 +68419,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>-40.83310172154827,172.8756591582102</t>
+          <t>-40.83311460004711,172.875658755062</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -68516,7 +68516,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>-40.83306794926094,172.8756602154162</t>
+          <t>-40.833094336674804,172.87565938938602</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -68613,7 +68613,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>-40.832939434448306,172.87566423842722</t>
+          <t>-40.832915658757344,172.87566498269658</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -68702,7 +68702,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>-40.83292052196688,172.8756648304597</t>
+          <t>-40.83289638603809,172.87566558600543</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -68791,7 +68791,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>-40.83287864432917,172.87566614138754</t>
+          <t>-40.83285126626046,172.8756669984233</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -68880,7 +68880,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>-40.83293087880197,172.87566450625147</t>
+          <t>-40.83297365703361,172.87566316712943</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -68977,7 +68977,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>-40.83289197312571,172.87566572414616</t>
+          <t>-40.83287846421029,172.87566614702595</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -69066,7 +69066,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>-40.832945828668215,172.87566403826378</t>
+          <t>-40.832984734344066,172.875662820367</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -69163,7 +69163,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>-40.83302787281304,172.87566146996585</t>
+          <t>-40.833046515115804,172.87566088638903</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -69260,7 +69260,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>-40.833049757255424,172.87566078489735</t>
+          <t>-40.83306614807227,172.87566027180048</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -69357,7 +69357,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>-40.832984554225206,172.87566282600542</t>
+          <t>-40.8330086901536,172.87566207045762</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -69454,7 +69454,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>-40.832830012233345,172.8756676637532</t>
+          <t>-40.83287693319986,172.8756661949523</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -69612,7 +69612,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>-40.832950241580534,172.87566390012276</t>
+          <t>-40.83298275303651,172.87566288238955</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -69709,7 +69709,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>-40.83316404267527,172.8756572073098</t>
+          <t>-40.83315854904995,172.87565737928242</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -69782,7 +69782,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>-40.83298986773184,172.87566265967217</t>
+          <t>-40.83301013110455,172.87566202535027</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -69879,7 +69879,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>-40.83304939701768,172.8756607961742</t>
+          <t>-40.83305615147519,172.87566058473323</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -70041,7 +70041,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>-40.832845952753686,172.8756671647558</t>
+          <t>-40.832897376691875,172.8756655549942</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -70138,7 +70138,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>-40.83289665621637,172.8756655775478</t>
+          <t>-40.83293718296244,172.8756643089073</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -70235,7 +70235,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>-40.832991308682786,172.87566261456487</t>
+          <t>-40.83302796287248,172.87566146714667</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -70332,7 +70332,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>-40.83307848621461,172.87565988556804</t>
+          <t>-40.833088752989966,172.87565956417745</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -70429,7 +70429,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>-40.833081818413625,172.87565978125707</t>
+          <t>-40.83310109113224,172.87565917794473</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -70526,7 +70526,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>-40.83291673947058,172.87566494886616</t>
+          <t>-40.832899087821154,172.87566550142944</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -70615,7 +70615,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>-40.83288116599338,172.87566606245002</t>
+          <t>-40.83294384736064,172.87566410028623</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
